--- a/Pricing Logic/WS_uploads/manual/output_1223_chunk_1.xlsx
+++ b/Pricing Logic/WS_uploads/manual/output_1223_chunk_1.xlsx
@@ -409,7 +409,7 @@
     <t>حفاضات مولفيكس ماكسى جامبو مقاس 4 - 58 حفاضة</t>
   </si>
   <si>
-    <t>اوكسى يدوى نسيم الشرق - 330 جم</t>
+    <t>اوكسى يدوى - 330 جم</t>
   </si>
   <si>
     <t>المراعي جبنة فيتا -عرض الكل كسبان 250 جم</t>
@@ -1273,7 +1273,7 @@
     <t>بلوبيف الذهبية - 340 جم</t>
   </si>
   <si>
-    <t>اوكسى اوتوماتيك نسيم الشرق 4 ك + 1 ك - 5 كجم</t>
+    <t>اوكسى اوتوماتيك نسيم الشرق 4 ك + 1 ك -Delisted 5 كجم</t>
   </si>
   <si>
     <t>مناديل زينة جامبو رول اكس لارج متعدد الاستخدام - 6 رول</t>
@@ -3589,7 +3589,7 @@
     <t>حلو الشام جيلى فراولة - 70 جم</t>
   </si>
   <si>
-    <t>اوكسي سائل أطباق ليمون اخضر بالنعناع- 600 جم</t>
+    <t>اوكسي سائل أطباق ليمون اخضر بالنعناع عرض 28ج بدل 30ج - 600 جم</t>
   </si>
   <si>
     <t>ليبتون شاي أخضر بدون مرارة - 25 فتلة</t>
@@ -8534,7 +8534,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>197.25</v>
       </c>
       <c r="E3" t="s">
         <v>2700</v>
@@ -8568,7 +8568,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>204.75</v>
+        <v>205</v>
       </c>
       <c r="E5" t="s">
         <v>2700</v>
@@ -8619,7 +8619,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>189</v>
+        <v>187.25</v>
       </c>
       <c r="E8" t="s">
         <v>2700</v>
@@ -8636,7 +8636,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>186.75</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
         <v>2700</v>
@@ -8653,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>195.5</v>
+        <v>194.75</v>
       </c>
       <c r="E10" t="s">
         <v>2700</v>
@@ -8670,7 +8670,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>205.75</v>
+        <v>204.25</v>
       </c>
       <c r="E11" t="s">
         <v>2700</v>
@@ -8704,7 +8704,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>116.25</v>
+        <v>116.75</v>
       </c>
       <c r="E13" t="s">
         <v>2700</v>
@@ -8755,7 +8755,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>200</v>
+        <v>197.25</v>
       </c>
       <c r="E16" t="s">
         <v>2700</v>
@@ -8772,7 +8772,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>140.75</v>
+        <v>139.25</v>
       </c>
       <c r="E17" t="s">
         <v>2700</v>
@@ -8789,7 +8789,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>263.75</v>
+        <v>264</v>
       </c>
       <c r="E18" t="s">
         <v>2700</v>
@@ -8823,7 +8823,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>103.5</v>
+        <v>103.25</v>
       </c>
       <c r="E20" t="s">
         <v>2700</v>
@@ -8840,7 +8840,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>207.25</v>
+        <v>208.5</v>
       </c>
       <c r="E21" t="s">
         <v>2700</v>
@@ -8908,7 +8908,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>103.25</v>
+        <v>101.75</v>
       </c>
       <c r="E25" t="s">
         <v>2700</v>
@@ -8959,7 +8959,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>335.5</v>
+        <v>335.75</v>
       </c>
       <c r="E28" t="s">
         <v>2700</v>
@@ -8976,7 +8976,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>492.75</v>
+        <v>492</v>
       </c>
       <c r="E29" t="s">
         <v>2700</v>
@@ -8993,7 +8993,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>248</v>
+        <v>248.25</v>
       </c>
       <c r="E30" t="s">
         <v>2700</v>
@@ -9027,7 +9027,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>263.75</v>
+        <v>264</v>
       </c>
       <c r="E32" t="s">
         <v>2700</v>
@@ -9061,7 +9061,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>103.25</v>
+        <v>101.75</v>
       </c>
       <c r="E34" t="s">
         <v>2700</v>
@@ -9078,7 +9078,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>295.5</v>
+        <v>300.75</v>
       </c>
       <c r="E35" t="s">
         <v>2700</v>
@@ -9146,7 +9146,7 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>218.25</v>
+        <v>218.75</v>
       </c>
       <c r="E39" t="s">
         <v>2701</v>
@@ -9163,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1309.5</v>
+        <v>1312.5</v>
       </c>
       <c r="E40" t="s">
         <v>2700</v>
@@ -9197,7 +9197,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>283.75</v>
+        <v>283.25</v>
       </c>
       <c r="E42" t="s">
         <v>2700</v>
@@ -9214,7 +9214,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E43" t="s">
         <v>2700</v>
@@ -9231,7 +9231,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>185.25</v>
+        <v>189.5</v>
       </c>
       <c r="E44" t="s">
         <v>2700</v>
@@ -9248,7 +9248,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>332.25</v>
+        <v>332.75</v>
       </c>
       <c r="E45" t="s">
         <v>2700</v>
@@ -9265,7 +9265,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>189</v>
+        <v>187.25</v>
       </c>
       <c r="E46" t="s">
         <v>2700</v>
@@ -9282,7 +9282,7 @@
         <v>25</v>
       </c>
       <c r="D47">
-        <v>350.75</v>
+        <v>350</v>
       </c>
       <c r="E47" t="s">
         <v>2701</v>
@@ -9299,7 +9299,7 @@
         <v>29</v>
       </c>
       <c r="D48">
-        <v>1052.25</v>
+        <v>1050</v>
       </c>
       <c r="E48" t="s">
         <v>2700</v>
@@ -9333,7 +9333,7 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>189</v>
+        <v>187.25</v>
       </c>
       <c r="E50" t="s">
         <v>2700</v>
@@ -9401,7 +9401,7 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>189</v>
+        <v>187.25</v>
       </c>
       <c r="E54" t="s">
         <v>2700</v>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>186.75</v>
+        <v>187</v>
       </c>
       <c r="E55" t="s">
         <v>2700</v>
@@ -9435,7 +9435,7 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>591</v>
+        <v>596.5</v>
       </c>
       <c r="E56" t="s">
         <v>2700</v>
@@ -9452,7 +9452,7 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>283.75</v>
+        <v>283.25</v>
       </c>
       <c r="E57" t="s">
         <v>2700</v>
@@ -9469,7 +9469,7 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>103.5</v>
+        <v>103.25</v>
       </c>
       <c r="E58" t="s">
         <v>2700</v>
@@ -9554,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>324</v>
+        <v>323.75</v>
       </c>
       <c r="E63" t="s">
         <v>2700</v>
@@ -9571,7 +9571,7 @@
         <v>2</v>
       </c>
       <c r="D64">
-        <v>186.75</v>
+        <v>187</v>
       </c>
       <c r="E64" t="s">
         <v>2700</v>
@@ -9588,7 +9588,7 @@
         <v>2</v>
       </c>
       <c r="D65">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E65" t="s">
         <v>2700</v>
@@ -9639,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>324</v>
+        <v>323.75</v>
       </c>
       <c r="E68" t="s">
         <v>2700</v>
@@ -9656,7 +9656,7 @@
         <v>2</v>
       </c>
       <c r="D69">
-        <v>287.25</v>
+        <v>288</v>
       </c>
       <c r="E69" t="s">
         <v>2700</v>
@@ -9673,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="D70">
-        <v>140.75</v>
+        <v>139.25</v>
       </c>
       <c r="E70" t="s">
         <v>2700</v>
@@ -9690,7 +9690,7 @@
         <v>25</v>
       </c>
       <c r="D71">
-        <v>386.75</v>
+        <v>386.5</v>
       </c>
       <c r="E71" t="s">
         <v>2701</v>
@@ -9707,7 +9707,7 @@
         <v>29</v>
       </c>
       <c r="D72">
-        <v>773.5</v>
+        <v>773</v>
       </c>
       <c r="E72" t="s">
         <v>2700</v>
@@ -9792,7 +9792,7 @@
         <v>2</v>
       </c>
       <c r="D77">
-        <v>103.25</v>
+        <v>101.75</v>
       </c>
       <c r="E77" t="s">
         <v>2700</v>
@@ -9877,7 +9877,7 @@
         <v>3</v>
       </c>
       <c r="D82">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E82" t="s">
         <v>2701</v>
@@ -9894,7 +9894,7 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="E83" t="s">
         <v>2700</v>
@@ -10030,7 +10030,7 @@
         <v>2</v>
       </c>
       <c r="D91">
-        <v>546.5</v>
+        <v>549</v>
       </c>
       <c r="E91" t="s">
         <v>2700</v>
@@ -10081,7 +10081,7 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>323.75</v>
+        <v>324.75</v>
       </c>
       <c r="E94" t="s">
         <v>2700</v>
@@ -10115,7 +10115,7 @@
         <v>2</v>
       </c>
       <c r="D96">
-        <v>321.5</v>
+        <v>316.75</v>
       </c>
       <c r="E96" t="s">
         <v>2700</v>
@@ -10149,7 +10149,7 @@
         <v>2</v>
       </c>
       <c r="D98">
-        <v>186.75</v>
+        <v>187</v>
       </c>
       <c r="E98" t="s">
         <v>2700</v>
@@ -10217,7 +10217,7 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>45.5</v>
+        <v>45.75</v>
       </c>
       <c r="E102" t="s">
         <v>2700</v>
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>303.5</v>
+        <v>299.75</v>
       </c>
       <c r="E103" t="s">
         <v>2700</v>
@@ -10251,7 +10251,7 @@
         <v>2</v>
       </c>
       <c r="D104">
-        <v>287.25</v>
+        <v>288</v>
       </c>
       <c r="E104" t="s">
         <v>2700</v>
@@ -10319,7 +10319,7 @@
         <v>2</v>
       </c>
       <c r="D108">
-        <v>445</v>
+        <v>447.25</v>
       </c>
       <c r="E108" t="s">
         <v>2700</v>
@@ -10336,7 +10336,7 @@
         <v>2</v>
       </c>
       <c r="D109">
-        <v>103.5</v>
+        <v>103.25</v>
       </c>
       <c r="E109" t="s">
         <v>2700</v>
@@ -10353,7 +10353,7 @@
         <v>2</v>
       </c>
       <c r="D110">
-        <v>501</v>
+        <v>500.5</v>
       </c>
       <c r="E110" t="s">
         <v>2700</v>
@@ -10472,7 +10472,7 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>545.5</v>
+        <v>547</v>
       </c>
       <c r="E117" t="s">
         <v>2700</v>
@@ -10489,7 +10489,7 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>121.75</v>
+        <v>121.25</v>
       </c>
       <c r="E118" t="s">
         <v>2700</v>
@@ -10523,7 +10523,7 @@
         <v>2</v>
       </c>
       <c r="D120">
-        <v>204.75</v>
+        <v>205</v>
       </c>
       <c r="E120" t="s">
         <v>2700</v>
@@ -10540,7 +10540,7 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E121" t="s">
         <v>2700</v>
@@ -10591,7 +10591,7 @@
         <v>3</v>
       </c>
       <c r="D124">
-        <v>412.5</v>
+        <v>414.5</v>
       </c>
       <c r="E124" t="s">
         <v>2700</v>
@@ -10659,7 +10659,7 @@
         <v>25</v>
       </c>
       <c r="D128">
-        <v>301.5</v>
+        <v>301.25</v>
       </c>
       <c r="E128" t="s">
         <v>2701</v>
@@ -10676,7 +10676,7 @@
         <v>29</v>
       </c>
       <c r="D129">
-        <v>904.5</v>
+        <v>903.75</v>
       </c>
       <c r="E129" t="s">
         <v>2700</v>
@@ -10693,7 +10693,7 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>501.5</v>
+        <v>502.75</v>
       </c>
       <c r="E130" t="s">
         <v>2700</v>
@@ -10795,7 +10795,7 @@
         <v>2</v>
       </c>
       <c r="D136">
-        <v>546.5</v>
+        <v>549</v>
       </c>
       <c r="E136" t="s">
         <v>2700</v>
@@ -10846,7 +10846,7 @@
         <v>2</v>
       </c>
       <c r="D139">
-        <v>204.75</v>
+        <v>205</v>
       </c>
       <c r="E139" t="s">
         <v>2700</v>
@@ -10863,7 +10863,7 @@
         <v>25</v>
       </c>
       <c r="D140">
-        <v>386.75</v>
+        <v>386.5</v>
       </c>
       <c r="E140" t="s">
         <v>2701</v>
@@ -10880,7 +10880,7 @@
         <v>29</v>
       </c>
       <c r="D141">
-        <v>773.5</v>
+        <v>773</v>
       </c>
       <c r="E141" t="s">
         <v>2700</v>
@@ -10965,7 +10965,7 @@
         <v>2</v>
       </c>
       <c r="D146">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E146" t="s">
         <v>2700</v>
@@ -10982,7 +10982,7 @@
         <v>2</v>
       </c>
       <c r="D147">
-        <v>323.75</v>
+        <v>325.5</v>
       </c>
       <c r="E147" t="s">
         <v>2700</v>
@@ -10999,7 +10999,7 @@
         <v>2</v>
       </c>
       <c r="D148">
-        <v>204.75</v>
+        <v>205</v>
       </c>
       <c r="E148" t="s">
         <v>2700</v>
@@ -11016,7 +11016,7 @@
         <v>25</v>
       </c>
       <c r="D149">
-        <v>350.25</v>
+        <v>350</v>
       </c>
       <c r="E149" t="s">
         <v>2701</v>
@@ -11033,7 +11033,7 @@
         <v>2</v>
       </c>
       <c r="D150">
-        <v>1050.75</v>
+        <v>1050</v>
       </c>
       <c r="E150" t="s">
         <v>2700</v>
@@ -11050,7 +11050,7 @@
         <v>25</v>
       </c>
       <c r="D151">
-        <v>303.75</v>
+        <v>303.25</v>
       </c>
       <c r="E151" t="s">
         <v>2701</v>
@@ -11067,7 +11067,7 @@
         <v>29</v>
       </c>
       <c r="D152">
-        <v>911.25</v>
+        <v>909.75</v>
       </c>
       <c r="E152" t="s">
         <v>2700</v>
@@ -11084,7 +11084,7 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>591</v>
+        <v>596.5</v>
       </c>
       <c r="E153" t="s">
         <v>2700</v>
@@ -11101,7 +11101,7 @@
         <v>25</v>
       </c>
       <c r="D154">
-        <v>303.5</v>
+        <v>303.75</v>
       </c>
       <c r="E154" t="s">
         <v>2701</v>
@@ -11118,7 +11118,7 @@
         <v>2</v>
       </c>
       <c r="D155">
-        <v>910.5</v>
+        <v>911.25</v>
       </c>
       <c r="E155" t="s">
         <v>2700</v>
@@ -11135,7 +11135,7 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>178.75</v>
+        <v>177.75</v>
       </c>
       <c r="E156" t="s">
         <v>2700</v>
@@ -11152,7 +11152,7 @@
         <v>2</v>
       </c>
       <c r="D157">
-        <v>501</v>
+        <v>500.5</v>
       </c>
       <c r="E157" t="s">
         <v>2700</v>
@@ -11203,7 +11203,7 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>313.25</v>
+        <v>312</v>
       </c>
       <c r="E160" t="s">
         <v>2700</v>
@@ -11288,7 +11288,7 @@
         <v>2</v>
       </c>
       <c r="D165">
-        <v>501</v>
+        <v>500.5</v>
       </c>
       <c r="E165" t="s">
         <v>2700</v>
@@ -11305,7 +11305,7 @@
         <v>2</v>
       </c>
       <c r="D166">
-        <v>122.75</v>
+        <v>122</v>
       </c>
       <c r="E166" t="s">
         <v>2700</v>
@@ -11322,7 +11322,7 @@
         <v>3</v>
       </c>
       <c r="D167">
-        <v>95.25</v>
+        <v>95</v>
       </c>
       <c r="E167" t="s">
         <v>2701</v>
@@ -11339,7 +11339,7 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E168" t="s">
         <v>2700</v>
@@ -11390,7 +11390,7 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>318.75</v>
+        <v>319.25</v>
       </c>
       <c r="E171" t="s">
         <v>2700</v>
@@ -11407,7 +11407,7 @@
         <v>2</v>
       </c>
       <c r="D172">
-        <v>122.75</v>
+        <v>122</v>
       </c>
       <c r="E172" t="s">
         <v>2700</v>
@@ -11424,7 +11424,7 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>142.25</v>
+        <v>141.75</v>
       </c>
       <c r="E173" t="s">
         <v>2700</v>
@@ -11509,7 +11509,7 @@
         <v>2</v>
       </c>
       <c r="D178">
-        <v>332.25</v>
+        <v>332.75</v>
       </c>
       <c r="E178" t="s">
         <v>2700</v>
@@ -11526,7 +11526,7 @@
         <v>25</v>
       </c>
       <c r="D179">
-        <v>284</v>
+        <v>285.5</v>
       </c>
       <c r="E179" t="s">
         <v>2701</v>
@@ -11543,7 +11543,7 @@
         <v>29</v>
       </c>
       <c r="D180">
-        <v>852</v>
+        <v>856.5</v>
       </c>
       <c r="E180" t="s">
         <v>2700</v>
@@ -11594,7 +11594,7 @@
         <v>2</v>
       </c>
       <c r="D183">
-        <v>195.5</v>
+        <v>194.75</v>
       </c>
       <c r="E183" t="s">
         <v>2700</v>
@@ -11611,7 +11611,7 @@
         <v>2</v>
       </c>
       <c r="D184">
-        <v>287.25</v>
+        <v>288</v>
       </c>
       <c r="E184" t="s">
         <v>2700</v>
@@ -11628,7 +11628,7 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>45.5</v>
+        <v>45.75</v>
       </c>
       <c r="E185" t="s">
         <v>2700</v>
@@ -11645,7 +11645,7 @@
         <v>2</v>
       </c>
       <c r="D186">
-        <v>270.75</v>
+        <v>271</v>
       </c>
       <c r="E186" t="s">
         <v>2700</v>
@@ -11662,7 +11662,7 @@
         <v>2</v>
       </c>
       <c r="D187">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="E187" t="s">
         <v>2701</v>
@@ -11679,7 +11679,7 @@
         <v>1</v>
       </c>
       <c r="D188">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="E188" t="s">
         <v>2700</v>
@@ -11696,7 +11696,7 @@
         <v>80</v>
       </c>
       <c r="D189">
-        <v>284</v>
+        <v>285.5</v>
       </c>
       <c r="E189" t="s">
         <v>2701</v>
@@ -11713,7 +11713,7 @@
         <v>29</v>
       </c>
       <c r="D190">
-        <v>852</v>
+        <v>856.5</v>
       </c>
       <c r="E190" t="s">
         <v>2700</v>
@@ -11730,7 +11730,7 @@
         <v>3</v>
       </c>
       <c r="D191">
-        <v>93</v>
+        <v>92.75</v>
       </c>
       <c r="E191" t="s">
         <v>2701</v>
@@ -11747,7 +11747,7 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>930</v>
+        <v>927.5</v>
       </c>
       <c r="E192" t="s">
         <v>2700</v>
@@ -11781,7 +11781,7 @@
         <v>25</v>
       </c>
       <c r="D194">
-        <v>302.5</v>
+        <v>303.75</v>
       </c>
       <c r="E194" t="s">
         <v>2701</v>
@@ -11798,7 +11798,7 @@
         <v>29</v>
       </c>
       <c r="D195">
-        <v>907.5</v>
+        <v>911.25</v>
       </c>
       <c r="E195" t="s">
         <v>2700</v>
@@ -11815,7 +11815,7 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>335.5</v>
+        <v>335.75</v>
       </c>
       <c r="E196" t="s">
         <v>2700</v>
@@ -11883,7 +11883,7 @@
         <v>25</v>
       </c>
       <c r="D200">
-        <v>244.5</v>
+        <v>242.75</v>
       </c>
       <c r="E200" t="s">
         <v>2701</v>
@@ -11900,7 +11900,7 @@
         <v>29</v>
       </c>
       <c r="D201">
-        <v>733.5</v>
+        <v>728.25</v>
       </c>
       <c r="E201" t="s">
         <v>2700</v>
@@ -11985,7 +11985,7 @@
         <v>2</v>
       </c>
       <c r="D206">
-        <v>103.5</v>
+        <v>103.25</v>
       </c>
       <c r="E206" t="s">
         <v>2700</v>
@@ -12002,7 +12002,7 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>45.5</v>
+        <v>45.75</v>
       </c>
       <c r="E207" t="s">
         <v>2700</v>
@@ -12019,7 +12019,7 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>880.5</v>
+        <v>881</v>
       </c>
       <c r="E208" t="s">
         <v>2700</v>
@@ -12036,7 +12036,7 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>303.5</v>
+        <v>299.75</v>
       </c>
       <c r="E209" t="s">
         <v>2700</v>
@@ -12070,7 +12070,7 @@
         <v>25</v>
       </c>
       <c r="D211">
-        <v>284.75</v>
+        <v>285.5</v>
       </c>
       <c r="E211" t="s">
         <v>2701</v>
@@ -12087,7 +12087,7 @@
         <v>29</v>
       </c>
       <c r="D212">
-        <v>854.25</v>
+        <v>856.5</v>
       </c>
       <c r="E212" t="s">
         <v>2700</v>
@@ -12104,7 +12104,7 @@
         <v>2</v>
       </c>
       <c r="D213">
-        <v>122.75</v>
+        <v>122</v>
       </c>
       <c r="E213" t="s">
         <v>2700</v>
@@ -12138,7 +12138,7 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>45.5</v>
+        <v>45.75</v>
       </c>
       <c r="E215" t="s">
         <v>2700</v>
@@ -12257,7 +12257,7 @@
         <v>2</v>
       </c>
       <c r="D222">
-        <v>445</v>
+        <v>447.25</v>
       </c>
       <c r="E222" t="s">
         <v>2700</v>
@@ -12359,7 +12359,7 @@
         <v>1</v>
       </c>
       <c r="D228">
-        <v>323.75</v>
+        <v>324.75</v>
       </c>
       <c r="E228" t="s">
         <v>2700</v>
@@ -12376,7 +12376,7 @@
         <v>2</v>
       </c>
       <c r="D229">
-        <v>212.5</v>
+        <v>220.25</v>
       </c>
       <c r="E229" t="s">
         <v>2700</v>
@@ -12393,7 +12393,7 @@
         <v>2</v>
       </c>
       <c r="D230">
-        <v>445</v>
+        <v>447.25</v>
       </c>
       <c r="E230" t="s">
         <v>2700</v>
@@ -12478,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>324</v>
+        <v>323.75</v>
       </c>
       <c r="E235" t="s">
         <v>2700</v>
@@ -12529,7 +12529,7 @@
         <v>2</v>
       </c>
       <c r="D238">
-        <v>321.5</v>
+        <v>316.75</v>
       </c>
       <c r="E238" t="s">
         <v>2700</v>
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>253.5</v>
+        <v>254.5</v>
       </c>
       <c r="E249" t="s">
         <v>2700</v>
@@ -12818,7 +12818,7 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>45.5</v>
+        <v>45.75</v>
       </c>
       <c r="E255" t="s">
         <v>2700</v>
@@ -12835,7 +12835,7 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>193</v>
+        <v>193.75</v>
       </c>
       <c r="E256" t="s">
         <v>2700</v>
@@ -12869,7 +12869,7 @@
         <v>3</v>
       </c>
       <c r="D258">
-        <v>93</v>
+        <v>92.75</v>
       </c>
       <c r="E258" t="s">
         <v>2701</v>
@@ -12886,7 +12886,7 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>930</v>
+        <v>927.5</v>
       </c>
       <c r="E259" t="s">
         <v>2700</v>
@@ -12903,7 +12903,7 @@
         <v>25</v>
       </c>
       <c r="D260">
-        <v>303.5</v>
+        <v>303.75</v>
       </c>
       <c r="E260" t="s">
         <v>2701</v>
@@ -12920,7 +12920,7 @@
         <v>2</v>
       </c>
       <c r="D261">
-        <v>910.5</v>
+        <v>911.25</v>
       </c>
       <c r="E261" t="s">
         <v>2700</v>
@@ -12954,7 +12954,7 @@
         <v>2</v>
       </c>
       <c r="D263">
-        <v>282.25</v>
+        <v>283.25</v>
       </c>
       <c r="E263" t="s">
         <v>2700</v>
@@ -12971,7 +12971,7 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>323.75</v>
+        <v>325.75</v>
       </c>
       <c r="E264" t="s">
         <v>2700</v>
@@ -13005,7 +13005,7 @@
         <v>25</v>
       </c>
       <c r="D266">
-        <v>350.75</v>
+        <v>350</v>
       </c>
       <c r="E266" t="s">
         <v>2701</v>
@@ -13022,7 +13022,7 @@
         <v>29</v>
       </c>
       <c r="D267">
-        <v>1052.25</v>
+        <v>1050</v>
       </c>
       <c r="E267" t="s">
         <v>2700</v>
@@ -13039,7 +13039,7 @@
         <v>3</v>
       </c>
       <c r="D268">
-        <v>603.75</v>
+        <v>603.5</v>
       </c>
       <c r="E268" t="s">
         <v>2701</v>
@@ -13056,7 +13056,7 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>4830</v>
+        <v>4828</v>
       </c>
       <c r="E269" t="s">
         <v>2700</v>
@@ -13073,7 +13073,7 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>191.25</v>
+        <v>193.75</v>
       </c>
       <c r="E270" t="s">
         <v>2700</v>
@@ -13124,7 +13124,7 @@
         <v>25</v>
       </c>
       <c r="D273">
-        <v>244.5</v>
+        <v>242.75</v>
       </c>
       <c r="E273" t="s">
         <v>2701</v>
@@ -13141,7 +13141,7 @@
         <v>29</v>
       </c>
       <c r="D274">
-        <v>733.5</v>
+        <v>728.25</v>
       </c>
       <c r="E274" t="s">
         <v>2700</v>
@@ -13158,7 +13158,7 @@
         <v>2</v>
       </c>
       <c r="D275">
-        <v>208</v>
+        <v>207.25</v>
       </c>
       <c r="E275" t="s">
         <v>2700</v>
@@ -13209,7 +13209,7 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>178.75</v>
+        <v>177.75</v>
       </c>
       <c r="E278" t="s">
         <v>2700</v>
@@ -13260,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="D281">
-        <v>318.75</v>
+        <v>319.25</v>
       </c>
       <c r="E281" t="s">
         <v>2700</v>
@@ -13396,7 +13396,7 @@
         <v>3</v>
       </c>
       <c r="D289">
-        <v>62</v>
+        <v>61.5</v>
       </c>
       <c r="E289" t="s">
         <v>2701</v>
@@ -13413,7 +13413,7 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="E290" t="s">
         <v>2700</v>
@@ -13447,7 +13447,7 @@
         <v>1</v>
       </c>
       <c r="D292">
-        <v>880.5</v>
+        <v>881</v>
       </c>
       <c r="E292" t="s">
         <v>2700</v>
@@ -13566,7 +13566,7 @@
         <v>2</v>
       </c>
       <c r="D299">
-        <v>282.25</v>
+        <v>283.25</v>
       </c>
       <c r="E299" t="s">
         <v>2700</v>
@@ -13600,7 +13600,7 @@
         <v>1</v>
       </c>
       <c r="D301">
-        <v>253.5</v>
+        <v>254.5</v>
       </c>
       <c r="E301" t="s">
         <v>2700</v>
@@ -13685,7 +13685,7 @@
         <v>29</v>
       </c>
       <c r="D306">
-        <v>276</v>
+        <v>275.75</v>
       </c>
       <c r="E306" t="s">
         <v>2700</v>
@@ -13702,7 +13702,7 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>275.25</v>
+        <v>276.25</v>
       </c>
       <c r="E307" t="s">
         <v>2700</v>
@@ -13719,7 +13719,7 @@
         <v>80</v>
       </c>
       <c r="D308">
-        <v>375.25</v>
+        <v>375</v>
       </c>
       <c r="E308" t="s">
         <v>2701</v>
@@ -13736,7 +13736,7 @@
         <v>29</v>
       </c>
       <c r="D309">
-        <v>750.5</v>
+        <v>750</v>
       </c>
       <c r="E309" t="s">
         <v>2700</v>
@@ -13770,7 +13770,7 @@
         <v>23</v>
       </c>
       <c r="D311">
-        <v>61.5</v>
+        <v>57.5</v>
       </c>
       <c r="E311" t="s">
         <v>2701</v>
@@ -13787,7 +13787,7 @@
         <v>1</v>
       </c>
       <c r="D312">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="E312" t="s">
         <v>2700</v>
@@ -13906,7 +13906,7 @@
         <v>1</v>
       </c>
       <c r="D319">
-        <v>880.5</v>
+        <v>881</v>
       </c>
       <c r="E319" t="s">
         <v>2700</v>
@@ -14059,7 +14059,7 @@
         <v>2</v>
       </c>
       <c r="D328">
-        <v>118.75</v>
+        <v>122.5</v>
       </c>
       <c r="E328" t="s">
         <v>2700</v>
@@ -14127,7 +14127,7 @@
         <v>1</v>
       </c>
       <c r="D332">
-        <v>328.5</v>
+        <v>331.75</v>
       </c>
       <c r="E332" t="s">
         <v>2700</v>
@@ -14144,7 +14144,7 @@
         <v>2</v>
       </c>
       <c r="D333">
-        <v>183.25</v>
+        <v>190.5</v>
       </c>
       <c r="E333" t="s">
         <v>2700</v>
@@ -14365,7 +14365,7 @@
         <v>25</v>
       </c>
       <c r="D346">
-        <v>39.25</v>
+        <v>39.5</v>
       </c>
       <c r="E346" t="s">
         <v>2701</v>
@@ -14382,7 +14382,7 @@
         <v>1</v>
       </c>
       <c r="D347">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E347" t="s">
         <v>2700</v>
@@ -14416,7 +14416,7 @@
         <v>25</v>
       </c>
       <c r="D349">
-        <v>259.5</v>
+        <v>258.5</v>
       </c>
       <c r="E349" t="s">
         <v>2701</v>
@@ -14433,7 +14433,7 @@
         <v>29</v>
       </c>
       <c r="D350">
-        <v>778.5</v>
+        <v>775.5</v>
       </c>
       <c r="E350" t="s">
         <v>2700</v>
@@ -14620,7 +14620,7 @@
         <v>25</v>
       </c>
       <c r="D361">
-        <v>326</v>
+        <v>325.5</v>
       </c>
       <c r="E361" t="s">
         <v>2701</v>
@@ -14637,7 +14637,7 @@
         <v>29</v>
       </c>
       <c r="D362">
-        <v>978</v>
+        <v>976.5</v>
       </c>
       <c r="E362" t="s">
         <v>2700</v>
@@ -14654,7 +14654,7 @@
         <v>1</v>
       </c>
       <c r="D363">
-        <v>370</v>
+        <v>367.75</v>
       </c>
       <c r="E363" t="s">
         <v>2700</v>
@@ -14739,7 +14739,7 @@
         <v>1</v>
       </c>
       <c r="D368">
-        <v>253.5</v>
+        <v>254.5</v>
       </c>
       <c r="E368" t="s">
         <v>2700</v>
@@ -14773,7 +14773,7 @@
         <v>1</v>
       </c>
       <c r="D370">
-        <v>142.25</v>
+        <v>142.5</v>
       </c>
       <c r="E370" t="s">
         <v>2700</v>
@@ -14824,7 +14824,7 @@
         <v>1</v>
       </c>
       <c r="D373">
-        <v>45.5</v>
+        <v>45.75</v>
       </c>
       <c r="E373" t="s">
         <v>2700</v>
@@ -14875,7 +14875,7 @@
         <v>2</v>
       </c>
       <c r="D376">
-        <v>501</v>
+        <v>500.5</v>
       </c>
       <c r="E376" t="s">
         <v>2700</v>
@@ -14926,7 +14926,7 @@
         <v>4</v>
       </c>
       <c r="D379">
-        <v>345.5</v>
+        <v>350.25</v>
       </c>
       <c r="E379" t="s">
         <v>2700</v>
@@ -14943,7 +14943,7 @@
         <v>1</v>
       </c>
       <c r="D380">
-        <v>45.5</v>
+        <v>45.75</v>
       </c>
       <c r="E380" t="s">
         <v>2700</v>
@@ -15028,7 +15028,7 @@
         <v>5</v>
       </c>
       <c r="D385">
-        <v>161</v>
+        <v>163.5</v>
       </c>
       <c r="E385" t="s">
         <v>2700</v>
@@ -15198,7 +15198,7 @@
         <v>2</v>
       </c>
       <c r="D395">
-        <v>445</v>
+        <v>447.25</v>
       </c>
       <c r="E395" t="s">
         <v>2700</v>
@@ -15487,7 +15487,7 @@
         <v>23</v>
       </c>
       <c r="D412">
-        <v>43.5</v>
+        <v>43</v>
       </c>
       <c r="E412" t="s">
         <v>2701</v>
@@ -15504,7 +15504,7 @@
         <v>1</v>
       </c>
       <c r="D413">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="E413" t="s">
         <v>2700</v>
@@ -15538,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="D415">
-        <v>205.25</v>
+        <v>206.75</v>
       </c>
       <c r="E415" t="s">
         <v>2700</v>
@@ -15589,7 +15589,7 @@
         <v>2</v>
       </c>
       <c r="D418">
-        <v>501</v>
+        <v>500.5</v>
       </c>
       <c r="E418" t="s">
         <v>2700</v>
@@ -15606,7 +15606,7 @@
         <v>2</v>
       </c>
       <c r="D419">
-        <v>402.25</v>
+        <v>403</v>
       </c>
       <c r="E419" t="s">
         <v>2700</v>
@@ -15623,7 +15623,7 @@
         <v>1</v>
       </c>
       <c r="D420">
-        <v>45.5</v>
+        <v>45.75</v>
       </c>
       <c r="E420" t="s">
         <v>2700</v>
@@ -15640,7 +15640,7 @@
         <v>2</v>
       </c>
       <c r="D421">
-        <v>128</v>
+        <v>127.25</v>
       </c>
       <c r="E421" t="s">
         <v>2700</v>
@@ -15657,7 +15657,7 @@
         <v>3</v>
       </c>
       <c r="D422">
-        <v>163.5</v>
+        <v>163</v>
       </c>
       <c r="E422" t="s">
         <v>2701</v>
@@ -15674,7 +15674,7 @@
         <v>1</v>
       </c>
       <c r="D423">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="E423" t="s">
         <v>2700</v>
@@ -15691,7 +15691,7 @@
         <v>2</v>
       </c>
       <c r="D424">
-        <v>109</v>
+        <v>109.75</v>
       </c>
       <c r="E424" t="s">
         <v>2700</v>
@@ -15708,7 +15708,7 @@
         <v>1</v>
       </c>
       <c r="D425">
-        <v>270.75</v>
+        <v>269.25</v>
       </c>
       <c r="E425" t="s">
         <v>2700</v>
@@ -15725,7 +15725,7 @@
         <v>25</v>
       </c>
       <c r="D426">
-        <v>301</v>
+        <v>301.75</v>
       </c>
       <c r="E426" t="s">
         <v>2701</v>
@@ -15742,7 +15742,7 @@
         <v>29</v>
       </c>
       <c r="D427">
-        <v>903</v>
+        <v>905.25</v>
       </c>
       <c r="E427" t="s">
         <v>2700</v>
@@ -15793,7 +15793,7 @@
         <v>25</v>
       </c>
       <c r="D430">
-        <v>301</v>
+        <v>301.75</v>
       </c>
       <c r="E430" t="s">
         <v>2701</v>
@@ -15810,7 +15810,7 @@
         <v>29</v>
       </c>
       <c r="D431">
-        <v>903</v>
+        <v>905.25</v>
       </c>
       <c r="E431" t="s">
         <v>2700</v>
@@ -15844,7 +15844,7 @@
         <v>1</v>
       </c>
       <c r="D433">
-        <v>45.5</v>
+        <v>45.75</v>
       </c>
       <c r="E433" t="s">
         <v>2700</v>
@@ -15963,7 +15963,7 @@
         <v>1</v>
       </c>
       <c r="D440">
-        <v>339.75</v>
+        <v>335.25</v>
       </c>
       <c r="E440" t="s">
         <v>2700</v>
@@ -16116,7 +16116,7 @@
         <v>25</v>
       </c>
       <c r="D449">
-        <v>397.75</v>
+        <v>397.5</v>
       </c>
       <c r="E449" t="s">
         <v>2701</v>
@@ -16133,7 +16133,7 @@
         <v>29</v>
       </c>
       <c r="D450">
-        <v>795.5</v>
+        <v>795</v>
       </c>
       <c r="E450" t="s">
         <v>2700</v>
@@ -16150,7 +16150,7 @@
         <v>1</v>
       </c>
       <c r="D451">
-        <v>366.5</v>
+        <v>365</v>
       </c>
       <c r="E451" t="s">
         <v>2700</v>
@@ -16252,7 +16252,7 @@
         <v>1</v>
       </c>
       <c r="D457">
-        <v>299.5</v>
+        <v>299.75</v>
       </c>
       <c r="E457" t="s">
         <v>2700</v>
@@ -16269,7 +16269,7 @@
         <v>3</v>
       </c>
       <c r="D458">
-        <v>52.75</v>
+        <v>51.75</v>
       </c>
       <c r="E458" t="s">
         <v>2701</v>
@@ -16286,7 +16286,7 @@
         <v>1</v>
       </c>
       <c r="D459">
-        <v>1582.5</v>
+        <v>1552.5</v>
       </c>
       <c r="E459" t="s">
         <v>2700</v>
@@ -16320,7 +16320,7 @@
         <v>2</v>
       </c>
       <c r="D461">
-        <v>501</v>
+        <v>500.5</v>
       </c>
       <c r="E461" t="s">
         <v>2700</v>
@@ -16371,7 +16371,7 @@
         <v>1</v>
       </c>
       <c r="D464">
-        <v>145.25</v>
+        <v>146</v>
       </c>
       <c r="E464" t="s">
         <v>2700</v>
@@ -16422,7 +16422,7 @@
         <v>1</v>
       </c>
       <c r="D467">
-        <v>45.5</v>
+        <v>45.75</v>
       </c>
       <c r="E467" t="s">
         <v>2700</v>
@@ -16439,7 +16439,7 @@
         <v>1</v>
       </c>
       <c r="D468">
-        <v>716</v>
+        <v>716.75</v>
       </c>
       <c r="E468" t="s">
         <v>2700</v>
@@ -16456,7 +16456,7 @@
         <v>1</v>
       </c>
       <c r="D469">
-        <v>712.75</v>
+        <v>713.75</v>
       </c>
       <c r="E469" t="s">
         <v>2700</v>
@@ -16473,7 +16473,7 @@
         <v>29</v>
       </c>
       <c r="D470">
-        <v>278.75</v>
+        <v>278.5</v>
       </c>
       <c r="E470" t="s">
         <v>2700</v>
@@ -16779,7 +16779,7 @@
         <v>3</v>
       </c>
       <c r="D488">
-        <v>55.75</v>
+        <v>54.75</v>
       </c>
       <c r="E488" t="s">
         <v>2701</v>
@@ -16796,7 +16796,7 @@
         <v>1</v>
       </c>
       <c r="D489">
-        <v>1338</v>
+        <v>1314</v>
       </c>
       <c r="E489" t="s">
         <v>2700</v>
@@ -16881,7 +16881,7 @@
         <v>2</v>
       </c>
       <c r="D494">
-        <v>478.25</v>
+        <v>488.5</v>
       </c>
       <c r="E494" t="s">
         <v>2700</v>
@@ -16983,7 +16983,7 @@
         <v>1</v>
       </c>
       <c r="D500">
-        <v>583.75</v>
+        <v>583.5</v>
       </c>
       <c r="E500" t="s">
         <v>2700</v>
@@ -17034,7 +17034,7 @@
         <v>1</v>
       </c>
       <c r="D503">
-        <v>239.75</v>
+        <v>239.5</v>
       </c>
       <c r="E503" t="s">
         <v>2700</v>
@@ -17051,7 +17051,7 @@
         <v>3</v>
       </c>
       <c r="D504">
-        <v>48.25</v>
+        <v>47.75</v>
       </c>
       <c r="E504" t="s">
         <v>2701</v>
@@ -17068,7 +17068,7 @@
         <v>1</v>
       </c>
       <c r="D505">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E505" t="s">
         <v>2700</v>
@@ -17085,7 +17085,7 @@
         <v>80</v>
       </c>
       <c r="D506">
-        <v>142.25</v>
+        <v>142</v>
       </c>
       <c r="E506" t="s">
         <v>2701</v>
@@ -17102,7 +17102,7 @@
         <v>29</v>
       </c>
       <c r="D507">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E507" t="s">
         <v>2700</v>
@@ -17119,7 +17119,7 @@
         <v>29</v>
       </c>
       <c r="D508">
-        <v>566</v>
+        <v>562.5</v>
       </c>
       <c r="E508" t="s">
         <v>2700</v>
@@ -17510,7 +17510,7 @@
         <v>23</v>
       </c>
       <c r="D531">
-        <v>43.5</v>
+        <v>43.25</v>
       </c>
       <c r="E531" t="s">
         <v>2701</v>
@@ -17527,7 +17527,7 @@
         <v>1</v>
       </c>
       <c r="D532">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="E532" t="s">
         <v>2700</v>
@@ -17612,7 +17612,7 @@
         <v>25</v>
       </c>
       <c r="D537">
-        <v>334.5</v>
+        <v>334</v>
       </c>
       <c r="E537" t="s">
         <v>2701</v>
@@ -17629,7 +17629,7 @@
         <v>2</v>
       </c>
       <c r="D538">
-        <v>1003.5</v>
+        <v>1002</v>
       </c>
       <c r="E538" t="s">
         <v>2700</v>
@@ -17646,7 +17646,7 @@
         <v>25</v>
       </c>
       <c r="D539">
-        <v>334.5</v>
+        <v>334</v>
       </c>
       <c r="E539" t="s">
         <v>2701</v>
@@ -17663,7 +17663,7 @@
         <v>2</v>
       </c>
       <c r="D540">
-        <v>1003.5</v>
+        <v>1002</v>
       </c>
       <c r="E540" t="s">
         <v>2700</v>
@@ -17748,7 +17748,7 @@
         <v>25</v>
       </c>
       <c r="D545">
-        <v>326</v>
+        <v>325.5</v>
       </c>
       <c r="E545" t="s">
         <v>2701</v>
@@ -17765,7 +17765,7 @@
         <v>29</v>
       </c>
       <c r="D546">
-        <v>978</v>
+        <v>976.5</v>
       </c>
       <c r="E546" t="s">
         <v>2700</v>
@@ -17816,7 +17816,7 @@
         <v>7</v>
       </c>
       <c r="D549">
-        <v>39.25</v>
+        <v>39</v>
       </c>
       <c r="E549" t="s">
         <v>2701</v>
@@ -17833,7 +17833,7 @@
         <v>1</v>
       </c>
       <c r="D550">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E550" t="s">
         <v>2700</v>
@@ -17850,7 +17850,7 @@
         <v>7</v>
       </c>
       <c r="D551">
-        <v>39.25</v>
+        <v>39</v>
       </c>
       <c r="E551" t="s">
         <v>2701</v>
@@ -17867,7 +17867,7 @@
         <v>1</v>
       </c>
       <c r="D552">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E552" t="s">
         <v>2700</v>
@@ -17935,7 +17935,7 @@
         <v>25</v>
       </c>
       <c r="D556">
-        <v>302.5</v>
+        <v>303.75</v>
       </c>
       <c r="E556" t="s">
         <v>2701</v>
@@ -17952,7 +17952,7 @@
         <v>29</v>
       </c>
       <c r="D557">
-        <v>907.5</v>
+        <v>911.25</v>
       </c>
       <c r="E557" t="s">
         <v>2700</v>
@@ -18003,7 +18003,7 @@
         <v>10</v>
       </c>
       <c r="D560">
-        <v>24.75</v>
+        <v>25</v>
       </c>
       <c r="E560" t="s">
         <v>2701</v>
@@ -18020,7 +18020,7 @@
         <v>1</v>
       </c>
       <c r="D561">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E561" t="s">
         <v>2700</v>
@@ -18071,7 +18071,7 @@
         <v>25</v>
       </c>
       <c r="D564">
-        <v>284.25</v>
+        <v>285.75</v>
       </c>
       <c r="E564" t="s">
         <v>2701</v>
@@ -18088,7 +18088,7 @@
         <v>29</v>
       </c>
       <c r="D565">
-        <v>852.75</v>
+        <v>857.25</v>
       </c>
       <c r="E565" t="s">
         <v>2700</v>
@@ -18156,7 +18156,7 @@
         <v>29</v>
       </c>
       <c r="D569">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E569" t="s">
         <v>2700</v>
@@ -18173,7 +18173,7 @@
         <v>25</v>
       </c>
       <c r="D570">
-        <v>406.75</v>
+        <v>405.75</v>
       </c>
       <c r="E570" t="s">
         <v>2701</v>
@@ -18190,7 +18190,7 @@
         <v>29</v>
       </c>
       <c r="D571">
-        <v>813.5</v>
+        <v>811.5</v>
       </c>
       <c r="E571" t="s">
         <v>2700</v>
@@ -18428,7 +18428,7 @@
         <v>2</v>
       </c>
       <c r="D585">
-        <v>267.5</v>
+        <v>270.25</v>
       </c>
       <c r="E585" t="s">
         <v>2700</v>
@@ -18445,7 +18445,7 @@
         <v>2</v>
       </c>
       <c r="D586">
-        <v>95</v>
+        <v>95.25</v>
       </c>
       <c r="E586" t="s">
         <v>2701</v>
@@ -18462,7 +18462,7 @@
         <v>1</v>
       </c>
       <c r="D587">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E587" t="s">
         <v>2700</v>
@@ -18479,7 +18479,7 @@
         <v>2</v>
       </c>
       <c r="D588">
-        <v>95</v>
+        <v>95.25</v>
       </c>
       <c r="E588" t="s">
         <v>2701</v>
@@ -18496,7 +18496,7 @@
         <v>1</v>
       </c>
       <c r="D589">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E589" t="s">
         <v>2700</v>
@@ -18513,7 +18513,7 @@
         <v>1</v>
       </c>
       <c r="D590">
-        <v>373.75</v>
+        <v>372.25</v>
       </c>
       <c r="E590" t="s">
         <v>2700</v>
@@ -18700,7 +18700,7 @@
         <v>3</v>
       </c>
       <c r="D601">
-        <v>180.25</v>
+        <v>182</v>
       </c>
       <c r="E601" t="s">
         <v>2701</v>
@@ -18717,7 +18717,7 @@
         <v>1</v>
       </c>
       <c r="D602">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="E602" t="s">
         <v>2700</v>
@@ -18785,7 +18785,7 @@
         <v>1</v>
       </c>
       <c r="D606">
-        <v>687.25</v>
+        <v>695.25</v>
       </c>
       <c r="E606" t="s">
         <v>2700</v>
@@ -18802,7 +18802,7 @@
         <v>1</v>
       </c>
       <c r="D607">
-        <v>687.25</v>
+        <v>695.25</v>
       </c>
       <c r="E607" t="s">
         <v>2700</v>
@@ -19108,7 +19108,7 @@
         <v>5</v>
       </c>
       <c r="D625">
-        <v>51</v>
+        <v>50.75</v>
       </c>
       <c r="E625" t="s">
         <v>2700</v>
@@ -19448,7 +19448,7 @@
         <v>1</v>
       </c>
       <c r="D645">
-        <v>45.5</v>
+        <v>45.75</v>
       </c>
       <c r="E645" t="s">
         <v>2700</v>
@@ -19465,7 +19465,7 @@
         <v>5</v>
       </c>
       <c r="D646">
-        <v>51</v>
+        <v>50.75</v>
       </c>
       <c r="E646" t="s">
         <v>2700</v>
@@ -19669,7 +19669,7 @@
         <v>1</v>
       </c>
       <c r="D658">
-        <v>328.5</v>
+        <v>331.75</v>
       </c>
       <c r="E658" t="s">
         <v>2700</v>
@@ -19686,7 +19686,7 @@
         <v>137</v>
       </c>
       <c r="D659">
-        <v>159.5</v>
+        <v>163.5</v>
       </c>
       <c r="E659" t="s">
         <v>2700</v>
@@ -19771,7 +19771,7 @@
         <v>1</v>
       </c>
       <c r="D664">
-        <v>205.25</v>
+        <v>206.75</v>
       </c>
       <c r="E664" t="s">
         <v>2700</v>
@@ -19788,7 +19788,7 @@
         <v>1</v>
       </c>
       <c r="D665">
-        <v>205.25</v>
+        <v>206.75</v>
       </c>
       <c r="E665" t="s">
         <v>2700</v>
@@ -19805,7 +19805,7 @@
         <v>2</v>
       </c>
       <c r="D666">
-        <v>109.5</v>
+        <v>109.25</v>
       </c>
       <c r="E666" t="s">
         <v>2700</v>
@@ -19822,7 +19822,7 @@
         <v>2</v>
       </c>
       <c r="D667">
-        <v>103.75</v>
+        <v>103.25</v>
       </c>
       <c r="E667" t="s">
         <v>2700</v>
@@ -19839,7 +19839,7 @@
         <v>2</v>
       </c>
       <c r="D668">
-        <v>103.75</v>
+        <v>103.25</v>
       </c>
       <c r="E668" t="s">
         <v>2700</v>
@@ -19907,7 +19907,7 @@
         <v>2</v>
       </c>
       <c r="D672">
-        <v>255.25</v>
+        <v>259.5</v>
       </c>
       <c r="E672" t="s">
         <v>2700</v>
@@ -19958,7 +19958,7 @@
         <v>1</v>
       </c>
       <c r="D675">
-        <v>451</v>
+        <v>450.75</v>
       </c>
       <c r="E675" t="s">
         <v>2700</v>
@@ -20009,7 +20009,7 @@
         <v>1</v>
       </c>
       <c r="D678">
-        <v>583.75</v>
+        <v>583.5</v>
       </c>
       <c r="E678" t="s">
         <v>2700</v>
@@ -20094,7 +20094,7 @@
         <v>1</v>
       </c>
       <c r="D683">
-        <v>257</v>
+        <v>256.9974722940948</v>
       </c>
       <c r="E683" t="s">
         <v>2700</v>
@@ -20128,7 +20128,7 @@
         <v>1</v>
       </c>
       <c r="D685">
-        <v>257.0817262833522</v>
+        <v>257.0817262833523</v>
       </c>
       <c r="E685" t="s">
         <v>2700</v>
@@ -20145,7 +20145,7 @@
         <v>1</v>
       </c>
       <c r="D686">
-        <v>254.5</v>
+        <v>254.75</v>
       </c>
       <c r="E686" t="s">
         <v>2700</v>
@@ -20179,7 +20179,7 @@
         <v>1</v>
       </c>
       <c r="D688">
-        <v>296.6840553803623</v>
+        <v>296.6890325449799</v>
       </c>
       <c r="E688" t="s">
         <v>2700</v>
@@ -20366,7 +20366,7 @@
         <v>1</v>
       </c>
       <c r="D699">
-        <v>251.9394155268976</v>
+        <v>251.9411318776895</v>
       </c>
       <c r="E699" t="s">
         <v>2700</v>
@@ -20774,7 +20774,7 @@
         <v>2</v>
       </c>
       <c r="D723">
-        <v>516.5053001687686</v>
+        <v>516.3142647884741</v>
       </c>
       <c r="E723" t="s">
         <v>2700</v>
@@ -21301,7 +21301,7 @@
         <v>3</v>
       </c>
       <c r="D754">
-        <v>114.1735258957759</v>
+        <v>114.9225</v>
       </c>
       <c r="E754" t="s">
         <v>2701</v>
@@ -21318,7 +21318,7 @@
         <v>1</v>
       </c>
       <c r="D755">
-        <v>685.0411553746557</v>
+        <v>689.535</v>
       </c>
       <c r="E755" t="s">
         <v>2700</v>
@@ -22168,7 +22168,7 @@
         <v>3</v>
       </c>
       <c r="D805">
-        <v>20</v>
+        <v>20.25</v>
       </c>
       <c r="E805" t="s">
         <v>2701</v>
@@ -22185,7 +22185,7 @@
         <v>1</v>
       </c>
       <c r="D806">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="E806" t="s">
         <v>2700</v>
@@ -22253,7 +22253,7 @@
         <v>2</v>
       </c>
       <c r="D810">
-        <v>397.8886113853415</v>
+        <v>393.895625</v>
       </c>
       <c r="E810" t="s">
         <v>2700</v>
@@ -22559,7 +22559,7 @@
         <v>4</v>
       </c>
       <c r="D828">
-        <v>701.5</v>
+        <v>701.25</v>
       </c>
       <c r="E828" t="s">
         <v>2701</v>
@@ -22576,7 +22576,7 @@
         <v>1</v>
       </c>
       <c r="D829">
-        <v>8418</v>
+        <v>8415</v>
       </c>
       <c r="E829" t="s">
         <v>2700</v>
@@ -22593,7 +22593,7 @@
         <v>4</v>
       </c>
       <c r="D830">
-        <v>695.75</v>
+        <v>691.75</v>
       </c>
       <c r="E830" t="s">
         <v>2701</v>
@@ -22610,7 +22610,7 @@
         <v>1</v>
       </c>
       <c r="D831">
-        <v>8349</v>
+        <v>8301</v>
       </c>
       <c r="E831" t="s">
         <v>2700</v>
@@ -22729,7 +22729,7 @@
         <v>4</v>
       </c>
       <c r="D838">
-        <v>554.75</v>
+        <v>554.5</v>
       </c>
       <c r="E838" t="s">
         <v>2701</v>
@@ -22746,7 +22746,7 @@
         <v>1</v>
       </c>
       <c r="D839">
-        <v>6657</v>
+        <v>6654</v>
       </c>
       <c r="E839" t="s">
         <v>2700</v>
@@ -22967,7 +22967,7 @@
         <v>1</v>
       </c>
       <c r="D852">
-        <v>318.64875</v>
+        <v>322.396177923982</v>
       </c>
       <c r="E852" t="s">
         <v>2700</v>
@@ -23851,7 +23851,7 @@
         <v>10</v>
       </c>
       <c r="D904">
-        <v>26</v>
+        <v>26.25</v>
       </c>
       <c r="E904" t="s">
         <v>2701</v>
@@ -23868,7 +23868,7 @@
         <v>15</v>
       </c>
       <c r="D905">
-        <v>260</v>
+        <v>262.5</v>
       </c>
       <c r="E905" t="s">
         <v>2700</v>
@@ -23885,7 +23885,7 @@
         <v>16</v>
       </c>
       <c r="D906">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="E906" t="s">
         <v>2700</v>
@@ -23902,7 +23902,7 @@
         <v>1</v>
       </c>
       <c r="D907">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="E907" t="s">
         <v>2700</v>
@@ -24072,7 +24072,7 @@
         <v>1</v>
       </c>
       <c r="D917">
-        <v>251.1890894943319</v>
+        <v>251.1680553015203</v>
       </c>
       <c r="E917" t="s">
         <v>2700</v>
@@ -24089,7 +24089,7 @@
         <v>2</v>
       </c>
       <c r="D918">
-        <v>389.418125</v>
+        <v>393.77125</v>
       </c>
       <c r="E918" t="s">
         <v>2700</v>
@@ -24208,7 +24208,7 @@
         <v>2</v>
       </c>
       <c r="D925">
-        <v>140.75</v>
+        <v>139.25</v>
       </c>
       <c r="E925" t="s">
         <v>2700</v>
@@ -24225,7 +24225,7 @@
         <v>2</v>
       </c>
       <c r="D926">
-        <v>458.5</v>
+        <v>456.75</v>
       </c>
       <c r="E926" t="s">
         <v>2700</v>
@@ -24616,7 +24616,7 @@
         <v>1</v>
       </c>
       <c r="D949">
-        <v>545.5</v>
+        <v>547</v>
       </c>
       <c r="E949" t="s">
         <v>2700</v>
@@ -24956,7 +24956,7 @@
         <v>10</v>
       </c>
       <c r="D969">
-        <v>991.5</v>
+        <v>991.25</v>
       </c>
       <c r="E969" t="s">
         <v>2700</v>
@@ -25228,7 +25228,7 @@
         <v>1</v>
       </c>
       <c r="D985">
-        <v>418.25</v>
+        <v>419.75</v>
       </c>
       <c r="E985" t="s">
         <v>2700</v>
@@ -25296,7 +25296,7 @@
         <v>1</v>
       </c>
       <c r="D989">
-        <v>843</v>
+        <v>841.25</v>
       </c>
       <c r="E989" t="s">
         <v>2700</v>
@@ -25908,7 +25908,7 @@
         <v>2</v>
       </c>
       <c r="D1025">
-        <v>397.9623356285117</v>
+        <v>397.9622764017921</v>
       </c>
       <c r="E1025" t="s">
         <v>2700</v>
@@ -26027,7 +26027,7 @@
         <v>2</v>
       </c>
       <c r="D1032">
-        <v>332.25</v>
+        <v>332.75</v>
       </c>
       <c r="E1032" t="s">
         <v>2700</v>
@@ -26095,7 +26095,7 @@
         <v>10</v>
       </c>
       <c r="D1036">
-        <v>49.5</v>
+        <v>49.75</v>
       </c>
       <c r="E1036" t="s">
         <v>2701</v>
@@ -26112,7 +26112,7 @@
         <v>15</v>
       </c>
       <c r="D1037">
-        <v>297</v>
+        <v>298.5</v>
       </c>
       <c r="E1037" t="s">
         <v>2700</v>
@@ -26129,7 +26129,7 @@
         <v>16</v>
       </c>
       <c r="D1038">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E1038" t="s">
         <v>2700</v>
@@ -26146,7 +26146,7 @@
         <v>1</v>
       </c>
       <c r="D1039">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="E1039" t="s">
         <v>2700</v>
@@ -27183,7 +27183,7 @@
         <v>2</v>
       </c>
       <c r="D1100">
-        <v>406.3255136996262</v>
+        <v>406.70625</v>
       </c>
       <c r="E1100" t="s">
         <v>2700</v>
@@ -28917,7 +28917,7 @@
         <v>11</v>
       </c>
       <c r="D1202">
-        <v>57.9356767130073</v>
+        <v>57.93567775133267</v>
       </c>
       <c r="E1202" t="s">
         <v>2701</v>
@@ -28934,7 +28934,7 @@
         <v>15</v>
       </c>
       <c r="D1203">
-        <v>695.2281205560876</v>
+        <v>695.2281330159921</v>
       </c>
       <c r="E1203" t="s">
         <v>2700</v>
@@ -28951,7 +28951,7 @@
         <v>16</v>
       </c>
       <c r="D1204">
-        <v>1390.456241112175</v>
+        <v>1390.456266031984</v>
       </c>
       <c r="E1204" t="s">
         <v>2700</v>
@@ -28968,7 +28968,7 @@
         <v>1</v>
       </c>
       <c r="D1205">
-        <v>2780.91248222435</v>
+        <v>2780.912532063968</v>
       </c>
       <c r="E1205" t="s">
         <v>2700</v>
@@ -29070,7 +29070,7 @@
         <v>4</v>
       </c>
       <c r="D1211">
-        <v>276.4852243605228</v>
+        <v>276.1397901569242</v>
       </c>
       <c r="E1211" t="s">
         <v>2701</v>
@@ -29087,7 +29087,7 @@
         <v>1</v>
       </c>
       <c r="D1212">
-        <v>3317.822692326274</v>
+        <v>3313.67748188309</v>
       </c>
       <c r="E1212" t="s">
         <v>2700</v>
@@ -29104,7 +29104,7 @@
         <v>4</v>
       </c>
       <c r="D1213">
-        <v>352</v>
+        <v>351.75</v>
       </c>
       <c r="E1213" t="s">
         <v>2701</v>
@@ -29121,7 +29121,7 @@
         <v>1</v>
       </c>
       <c r="D1214">
-        <v>4224</v>
+        <v>4221</v>
       </c>
       <c r="E1214" t="s">
         <v>2700</v>
@@ -29971,7 +29971,7 @@
         <v>2</v>
       </c>
       <c r="D1264">
-        <v>128</v>
+        <v>127.25</v>
       </c>
       <c r="E1264" t="s">
         <v>2700</v>
@@ -30753,7 +30753,7 @@
         <v>7</v>
       </c>
       <c r="D1310">
-        <v>52.14598923143352</v>
+        <v>52.25</v>
       </c>
       <c r="E1310" t="s">
         <v>2701</v>
@@ -30770,7 +30770,7 @@
         <v>2</v>
       </c>
       <c r="D1311">
-        <v>1042.91978462867</v>
+        <v>1045</v>
       </c>
       <c r="E1311" t="s">
         <v>2700</v>
@@ -30787,7 +30787,7 @@
         <v>7</v>
       </c>
       <c r="D1312">
-        <v>50.75</v>
+        <v>51</v>
       </c>
       <c r="E1312" t="s">
         <v>2701</v>
@@ -30804,7 +30804,7 @@
         <v>2</v>
       </c>
       <c r="D1313">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="E1313" t="s">
         <v>2700</v>
@@ -31297,7 +31297,7 @@
         <v>2</v>
       </c>
       <c r="D1342">
-        <v>128</v>
+        <v>127.25</v>
       </c>
       <c r="E1342" t="s">
         <v>2700</v>
@@ -33082,7 +33082,7 @@
         <v>3</v>
       </c>
       <c r="D1447">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E1447" t="s">
         <v>2701</v>
@@ -33099,7 +33099,7 @@
         <v>1</v>
       </c>
       <c r="D1448">
-        <v>1260</v>
+        <v>1236</v>
       </c>
       <c r="E1448" t="s">
         <v>2700</v>
@@ -33218,7 +33218,7 @@
         <v>1</v>
       </c>
       <c r="D1455">
-        <v>384.5</v>
+        <v>389.25</v>
       </c>
       <c r="E1455" t="s">
         <v>2700</v>
@@ -34629,7 +34629,7 @@
         <v>2</v>
       </c>
       <c r="D1538">
-        <v>356</v>
+        <v>357.75</v>
       </c>
       <c r="E1538" t="s">
         <v>2700</v>
@@ -34867,7 +34867,7 @@
         <v>2</v>
       </c>
       <c r="D1552">
-        <v>46.7940134031238</v>
+        <v>46.87346218564225</v>
       </c>
       <c r="E1552" t="s">
         <v>2701</v>
@@ -34884,7 +34884,7 @@
         <v>1</v>
       </c>
       <c r="D1553">
-        <v>561.5281608374855</v>
+        <v>562.481546227707</v>
       </c>
       <c r="E1553" t="s">
         <v>2700</v>
@@ -34901,7 +34901,7 @@
         <v>2</v>
       </c>
       <c r="D1554">
-        <v>46.87133726616933</v>
+        <v>46.87133726616934</v>
       </c>
       <c r="E1554" t="s">
         <v>2701</v>
@@ -34918,7 +34918,7 @@
         <v>1</v>
       </c>
       <c r="D1555">
-        <v>562.456047194032</v>
+        <v>562.4560471940321</v>
       </c>
       <c r="E1555" t="s">
         <v>2700</v>
@@ -35088,7 +35088,7 @@
         <v>1</v>
       </c>
       <c r="D1565">
-        <v>572</v>
+        <v>573.75</v>
       </c>
       <c r="E1565" t="s">
         <v>2700</v>
@@ -35139,7 +35139,7 @@
         <v>2</v>
       </c>
       <c r="D1568">
-        <v>179.8685023302518</v>
+        <v>179.7915092557604</v>
       </c>
       <c r="E1568" t="s">
         <v>2700</v>
@@ -35258,7 +35258,7 @@
         <v>1</v>
       </c>
       <c r="D1575">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E1575" t="s">
         <v>2700</v>
@@ -35938,7 +35938,7 @@
         <v>68</v>
       </c>
       <c r="D1615">
-        <v>103.5</v>
+        <v>103.25</v>
       </c>
       <c r="E1615" t="s">
         <v>2701</v>
@@ -35955,7 +35955,7 @@
         <v>3</v>
       </c>
       <c r="D1616">
-        <v>517.5</v>
+        <v>516.25</v>
       </c>
       <c r="E1616" t="s">
         <v>2700</v>
@@ -35972,7 +35972,7 @@
         <v>1</v>
       </c>
       <c r="D1617">
-        <v>5175</v>
+        <v>5162.5</v>
       </c>
       <c r="E1617" t="s">
         <v>2700</v>
@@ -36278,7 +36278,7 @@
         <v>1</v>
       </c>
       <c r="D1635">
-        <v>405</v>
+        <v>405.25</v>
       </c>
       <c r="E1635" t="s">
         <v>2700</v>
@@ -36652,7 +36652,7 @@
         <v>2</v>
       </c>
       <c r="D1657">
-        <v>321.5</v>
+        <v>316.75</v>
       </c>
       <c r="E1657" t="s">
         <v>2700</v>
@@ -37162,7 +37162,7 @@
         <v>1</v>
       </c>
       <c r="D1687">
-        <v>173.25</v>
+        <v>176.25</v>
       </c>
       <c r="E1687" t="s">
         <v>2700</v>
@@ -37315,7 +37315,7 @@
         <v>1</v>
       </c>
       <c r="D1696">
-        <v>271.635</v>
+        <v>271.75</v>
       </c>
       <c r="E1696" t="s">
         <v>2700</v>
@@ -37332,7 +37332,7 @@
         <v>1</v>
       </c>
       <c r="D1697">
-        <v>271.635</v>
+        <v>271.75</v>
       </c>
       <c r="E1697" t="s">
         <v>2700</v>
@@ -37485,7 +37485,7 @@
         <v>1</v>
       </c>
       <c r="D1706">
-        <v>288.835899435012</v>
+        <v>297.525746413215</v>
       </c>
       <c r="E1706" t="s">
         <v>2700</v>
@@ -38896,7 +38896,7 @@
         <v>2</v>
       </c>
       <c r="D1789">
-        <v>175.75</v>
+        <v>176.75</v>
       </c>
       <c r="E1789" t="s">
         <v>2700</v>
@@ -39151,7 +39151,7 @@
         <v>3</v>
       </c>
       <c r="D1804">
-        <v>61.5</v>
+        <v>61.25</v>
       </c>
       <c r="E1804" t="s">
         <v>2701</v>
@@ -39168,7 +39168,7 @@
         <v>1</v>
       </c>
       <c r="D1805">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="E1805" t="s">
         <v>2700</v>
@@ -39797,7 +39797,7 @@
         <v>3</v>
       </c>
       <c r="D1842">
-        <v>96.5</v>
+        <v>96</v>
       </c>
       <c r="E1842" t="s">
         <v>2701</v>
@@ -39814,7 +39814,7 @@
         <v>1</v>
       </c>
       <c r="D1843">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="E1843" t="s">
         <v>2700</v>
@@ -40630,7 +40630,7 @@
         <v>1</v>
       </c>
       <c r="D1891">
-        <v>641.25</v>
+        <v>634.75</v>
       </c>
       <c r="E1891" t="s">
         <v>2700</v>
@@ -41667,7 +41667,7 @@
         <v>3</v>
       </c>
       <c r="D1952">
-        <v>48.67346907819643</v>
+        <v>48.67348043880196</v>
       </c>
       <c r="E1952" t="s">
         <v>2701</v>
@@ -41684,7 +41684,7 @@
         <v>1</v>
       </c>
       <c r="D1953">
-        <v>584.0816289383571</v>
+        <v>584.0817652656235</v>
       </c>
       <c r="E1953" t="s">
         <v>2700</v>
@@ -42551,7 +42551,7 @@
         <v>25</v>
       </c>
       <c r="D2004">
-        <v>284.25</v>
+        <v>285.75</v>
       </c>
       <c r="E2004" t="s">
         <v>2701</v>
@@ -42568,7 +42568,7 @@
         <v>29</v>
       </c>
       <c r="D2005">
-        <v>852.75</v>
+        <v>857.25</v>
       </c>
       <c r="E2005" t="s">
         <v>2700</v>
@@ -43095,7 +43095,7 @@
         <v>2</v>
       </c>
       <c r="D2036">
-        <v>277.25</v>
+        <v>277</v>
       </c>
       <c r="E2036" t="s">
         <v>2700</v>
@@ -43112,7 +43112,7 @@
         <v>2</v>
       </c>
       <c r="D2037">
-        <v>302.5</v>
+        <v>302.25</v>
       </c>
       <c r="E2037" t="s">
         <v>2700</v>
@@ -43180,7 +43180,7 @@
         <v>3</v>
       </c>
       <c r="D2041">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="E2041" t="s">
         <v>2701</v>
@@ -43197,7 +43197,7 @@
         <v>1</v>
       </c>
       <c r="D2042">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="E2042" t="s">
         <v>2700</v>
@@ -43486,7 +43486,7 @@
         <v>3</v>
       </c>
       <c r="D2059">
-        <v>82.70937499999999</v>
+        <v>83.455625</v>
       </c>
       <c r="E2059" t="s">
         <v>2701</v>
@@ -43503,7 +43503,7 @@
         <v>1</v>
       </c>
       <c r="D2060">
-        <v>1654.1875</v>
+        <v>1669.1125</v>
       </c>
       <c r="E2060" t="s">
         <v>2700</v>
@@ -43520,7 +43520,7 @@
         <v>3</v>
       </c>
       <c r="D2061">
-        <v>82.21187500000001</v>
+        <v>83.206875</v>
       </c>
       <c r="E2061" t="s">
         <v>2701</v>
@@ -43537,7 +43537,7 @@
         <v>1</v>
       </c>
       <c r="D2062">
-        <v>1644.2375</v>
+        <v>1664.1375</v>
       </c>
       <c r="E2062" t="s">
         <v>2700</v>
@@ -45356,7 +45356,7 @@
         <v>2</v>
       </c>
       <c r="D2169">
-        <v>132</v>
+        <v>131.75</v>
       </c>
       <c r="E2169" t="s">
         <v>2701</v>
@@ -45373,7 +45373,7 @@
         <v>1</v>
       </c>
       <c r="D2170">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E2170" t="s">
         <v>2700</v>
@@ -45407,7 +45407,7 @@
         <v>2</v>
       </c>
       <c r="D2172">
-        <v>185.5</v>
+        <v>181.5</v>
       </c>
       <c r="E2172" t="s">
         <v>2700</v>
@@ -46104,7 +46104,7 @@
         <v>1</v>
       </c>
       <c r="D2213">
-        <v>200.3467235284603</v>
+        <v>200.5</v>
       </c>
       <c r="E2213" t="s">
         <v>2700</v>
@@ -46155,7 +46155,7 @@
         <v>1</v>
       </c>
       <c r="D2216">
-        <v>200.2402115357642</v>
+        <v>201.7124735729387</v>
       </c>
       <c r="E2216" t="s">
         <v>2700</v>
@@ -46172,7 +46172,7 @@
         <v>1</v>
       </c>
       <c r="D2217">
-        <v>496.0038948339864</v>
+        <v>495.9998605208696</v>
       </c>
       <c r="E2217" t="s">
         <v>2700</v>
@@ -46393,7 +46393,7 @@
         <v>3</v>
       </c>
       <c r="D2230">
-        <v>47.67658058493305</v>
+        <v>47.6765805868032</v>
       </c>
       <c r="E2230" t="s">
         <v>2701</v>
@@ -46410,7 +46410,7 @@
         <v>1</v>
       </c>
       <c r="D2231">
-        <v>572.1189670191966</v>
+        <v>572.1189670416384</v>
       </c>
       <c r="E2231" t="s">
         <v>2700</v>
@@ -47175,7 +47175,7 @@
         <v>3</v>
       </c>
       <c r="D2276">
-        <v>322.753125</v>
+        <v>322.504375</v>
       </c>
       <c r="E2276" t="s">
         <v>2701</v>
@@ -47192,7 +47192,7 @@
         <v>1</v>
       </c>
       <c r="D2277">
-        <v>3873.0375</v>
+        <v>3870.0525</v>
       </c>
       <c r="E2277" t="s">
         <v>2700</v>
@@ -47209,7 +47209,7 @@
         <v>3</v>
       </c>
       <c r="D2278">
-        <v>327.1407392155799</v>
+        <v>327.1456370460171</v>
       </c>
       <c r="E2278" t="s">
         <v>2701</v>
@@ -47226,7 +47226,7 @@
         <v>1</v>
       </c>
       <c r="D2279">
-        <v>3925.688870586959</v>
+        <v>3925.747644552205</v>
       </c>
       <c r="E2279" t="s">
         <v>2700</v>
@@ -47243,7 +47243,7 @@
         <v>3</v>
       </c>
       <c r="D2280">
-        <v>326.4195046140271</v>
+        <v>326.4298412486083</v>
       </c>
       <c r="E2280" t="s">
         <v>2701</v>
@@ -47260,7 +47260,7 @@
         <v>1</v>
       </c>
       <c r="D2281">
-        <v>3917.034055368325</v>
+        <v>3917.1580949833</v>
       </c>
       <c r="E2281" t="s">
         <v>2700</v>
@@ -47311,7 +47311,7 @@
         <v>3</v>
       </c>
       <c r="D2284">
-        <v>326.6706040437881</v>
+        <v>326.6714399645124</v>
       </c>
       <c r="E2284" t="s">
         <v>2701</v>
@@ -47328,7 +47328,7 @@
         <v>1</v>
       </c>
       <c r="D2285">
-        <v>3920.047248525457</v>
+        <v>3920.057279574149</v>
       </c>
       <c r="E2285" t="s">
         <v>2700</v>
@@ -47379,7 +47379,7 @@
         <v>3</v>
       </c>
       <c r="D2288">
-        <v>559.1504188187912</v>
+        <v>559.1591658019432</v>
       </c>
       <c r="E2288" t="s">
         <v>2701</v>
@@ -47396,7 +47396,7 @@
         <v>1</v>
       </c>
       <c r="D2289">
-        <v>6709.805025825494</v>
+        <v>6709.909989623318</v>
       </c>
       <c r="E2289" t="s">
         <v>2700</v>
@@ -47413,7 +47413,7 @@
         <v>3</v>
       </c>
       <c r="D2290">
-        <v>555.0973585191138</v>
+        <v>555.0999313212203</v>
       </c>
       <c r="E2290" t="s">
         <v>2701</v>
@@ -47430,7 +47430,7 @@
         <v>1</v>
       </c>
       <c r="D2291">
-        <v>6661.168302229366</v>
+        <v>6661.199175854644</v>
       </c>
       <c r="E2291" t="s">
         <v>2700</v>
@@ -47549,7 +47549,7 @@
         <v>3</v>
       </c>
       <c r="D2298">
-        <v>84.19201414331668</v>
+        <v>81.90796083800755</v>
       </c>
       <c r="E2298" t="s">
         <v>2701</v>
@@ -47566,7 +47566,7 @@
         <v>1</v>
       </c>
       <c r="D2299">
-        <v>1683.840282866334</v>
+        <v>1638.159216760151</v>
       </c>
       <c r="E2299" t="s">
         <v>2700</v>
@@ -47736,7 +47736,7 @@
         <v>2</v>
       </c>
       <c r="D2309">
-        <v>183.978988417955</v>
+        <v>183.9395900979844</v>
       </c>
       <c r="E2309" t="s">
         <v>2700</v>
@@ -47991,7 +47991,7 @@
         <v>2</v>
       </c>
       <c r="D2324">
-        <v>118.75</v>
+        <v>122.5</v>
       </c>
       <c r="E2324" t="s">
         <v>2700</v>
@@ -48399,7 +48399,7 @@
         <v>3</v>
       </c>
       <c r="D2348">
-        <v>70.5</v>
+        <v>70</v>
       </c>
       <c r="E2348" t="s">
         <v>2701</v>
@@ -48416,7 +48416,7 @@
         <v>138</v>
       </c>
       <c r="D2349">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E2349" t="s">
         <v>2700</v>
@@ -48433,7 +48433,7 @@
         <v>1</v>
       </c>
       <c r="D2350">
-        <v>4230</v>
+        <v>4200</v>
       </c>
       <c r="E2350" t="s">
         <v>2700</v>
@@ -48892,7 +48892,7 @@
         <v>1</v>
       </c>
       <c r="D2377">
-        <v>373</v>
+        <v>367.5</v>
       </c>
       <c r="E2377" t="s">
         <v>2700</v>
@@ -49436,7 +49436,7 @@
         <v>1</v>
       </c>
       <c r="D2409">
-        <v>1041</v>
+        <v>1038.5</v>
       </c>
       <c r="E2409" t="s">
         <v>2700</v>
@@ -51221,7 +51221,7 @@
         <v>3</v>
       </c>
       <c r="D2514">
-        <v>102.4246175442191</v>
+        <v>102.424617544289</v>
       </c>
       <c r="E2514" t="s">
         <v>2701</v>
@@ -51238,7 +51238,7 @@
         <v>1</v>
       </c>
       <c r="D2515">
-        <v>2458.190821061258</v>
+        <v>2458.190821062936</v>
       </c>
       <c r="E2515" t="s">
         <v>2700</v>
@@ -51289,7 +51289,7 @@
         <v>3</v>
       </c>
       <c r="D2518">
-        <v>370.5</v>
+        <v>367.5</v>
       </c>
       <c r="E2518" t="s">
         <v>2701</v>
@@ -51306,7 +51306,7 @@
         <v>1</v>
       </c>
       <c r="D2519">
-        <v>4446</v>
+        <v>4410</v>
       </c>
       <c r="E2519" t="s">
         <v>2700</v>
@@ -51493,7 +51493,7 @@
         <v>3</v>
       </c>
       <c r="D2530">
-        <v>139.3938991488776</v>
+        <v>139.3939113227601</v>
       </c>
       <c r="E2530" t="s">
         <v>2701</v>
@@ -51510,7 +51510,7 @@
         <v>1</v>
       </c>
       <c r="D2531">
-        <v>1672.726789786531</v>
+        <v>1672.726935873121</v>
       </c>
       <c r="E2531" t="s">
         <v>2700</v>
@@ -53159,7 +53159,7 @@
         <v>29</v>
       </c>
       <c r="D2628">
-        <v>289.75</v>
+        <v>290.25</v>
       </c>
       <c r="E2628" t="s">
         <v>2700</v>
@@ -53737,7 +53737,7 @@
         <v>3</v>
       </c>
       <c r="D2662">
-        <v>387.75</v>
+        <v>384</v>
       </c>
       <c r="E2662" t="s">
         <v>2701</v>
@@ -53754,7 +53754,7 @@
         <v>1</v>
       </c>
       <c r="D2663">
-        <v>4653</v>
+        <v>4608</v>
       </c>
       <c r="E2663" t="s">
         <v>2700</v>
@@ -54570,7 +54570,7 @@
         <v>2</v>
       </c>
       <c r="D2711">
-        <v>321.5</v>
+        <v>316.75</v>
       </c>
       <c r="E2711" t="s">
         <v>2700</v>
@@ -56763,7 +56763,7 @@
         <v>3</v>
       </c>
       <c r="D2840">
-        <v>143.1987941440891</v>
+        <v>143.0895994914754</v>
       </c>
       <c r="E2840" t="s">
         <v>2701</v>
@@ -56780,7 +56780,7 @@
         <v>1</v>
       </c>
       <c r="D2841">
-        <v>1718.385529729069</v>
+        <v>1717.075193897704</v>
       </c>
       <c r="E2841" t="s">
         <v>2700</v>
@@ -56797,7 +56797,7 @@
         <v>3</v>
       </c>
       <c r="D2842">
-        <v>142.9701585354678</v>
+        <v>142.9105125200676</v>
       </c>
       <c r="E2842" t="s">
         <v>2701</v>
@@ -56814,7 +56814,7 @@
         <v>1</v>
       </c>
       <c r="D2843">
-        <v>1715.641902425613</v>
+        <v>1714.926150240812</v>
       </c>
       <c r="E2843" t="s">
         <v>2700</v>
@@ -56899,7 +56899,7 @@
         <v>3</v>
       </c>
       <c r="D2848">
-        <v>142.8743831437876</v>
+        <v>142.6948661293415</v>
       </c>
       <c r="E2848" t="s">
         <v>2701</v>
@@ -56916,7 +56916,7 @@
         <v>1</v>
       </c>
       <c r="D2849">
-        <v>1714.492597725451</v>
+        <v>1712.338393552098</v>
       </c>
       <c r="E2849" t="s">
         <v>2700</v>
@@ -58242,7 +58242,7 @@
         <v>2</v>
       </c>
       <c r="D2927">
-        <v>118.75</v>
+        <v>122.5</v>
       </c>
       <c r="E2927" t="s">
         <v>2700</v>
@@ -58514,7 +58514,7 @@
         <v>25</v>
       </c>
       <c r="D2943">
-        <v>147.25</v>
+        <v>147.5</v>
       </c>
       <c r="E2943" t="s">
         <v>2701</v>
@@ -58531,7 +58531,7 @@
         <v>29</v>
       </c>
       <c r="D2944">
-        <v>736.25</v>
+        <v>737.5</v>
       </c>
       <c r="E2944" t="s">
         <v>2700</v>
@@ -58548,7 +58548,7 @@
         <v>25</v>
       </c>
       <c r="D2945">
-        <v>149.75</v>
+        <v>150</v>
       </c>
       <c r="E2945" t="s">
         <v>2701</v>
@@ -58565,7 +58565,7 @@
         <v>29</v>
       </c>
       <c r="D2946">
-        <v>748.75</v>
+        <v>750</v>
       </c>
       <c r="E2946" t="s">
         <v>2700</v>
@@ -58582,7 +58582,7 @@
         <v>25</v>
       </c>
       <c r="D2947">
-        <v>167.25</v>
+        <v>167.5</v>
       </c>
       <c r="E2947" t="s">
         <v>2701</v>
@@ -58599,7 +58599,7 @@
         <v>29</v>
       </c>
       <c r="D2948">
-        <v>836.25</v>
+        <v>837.5</v>
       </c>
       <c r="E2948" t="s">
         <v>2700</v>
@@ -60214,7 +60214,7 @@
         <v>1</v>
       </c>
       <c r="D3043">
-        <v>169.5</v>
+        <v>170.25</v>
       </c>
       <c r="E3043" t="s">
         <v>2700</v>
@@ -60792,7 +60792,7 @@
         <v>1</v>
       </c>
       <c r="D3077">
-        <v>253.5</v>
+        <v>254.5</v>
       </c>
       <c r="E3077" t="s">
         <v>2700</v>
@@ -60809,7 +60809,7 @@
         <v>1</v>
       </c>
       <c r="D3078">
-        <v>254.5565583325422</v>
+        <v>254.75</v>
       </c>
       <c r="E3078" t="s">
         <v>2700</v>
@@ -60843,7 +60843,7 @@
         <v>3</v>
       </c>
       <c r="D3080">
-        <v>806.5</v>
+        <v>805.75</v>
       </c>
       <c r="E3080" t="s">
         <v>2701</v>
@@ -60860,7 +60860,7 @@
         <v>1</v>
       </c>
       <c r="D3081">
-        <v>6452</v>
+        <v>6446</v>
       </c>
       <c r="E3081" t="s">
         <v>2700</v>
@@ -60877,7 +60877,7 @@
         <v>3</v>
       </c>
       <c r="D3082">
-        <v>799.75</v>
+        <v>799</v>
       </c>
       <c r="E3082" t="s">
         <v>2701</v>
@@ -60894,7 +60894,7 @@
         <v>1</v>
       </c>
       <c r="D3083">
-        <v>6398</v>
+        <v>6392</v>
       </c>
       <c r="E3083" t="s">
         <v>2700</v>
@@ -60945,7 +60945,7 @@
         <v>14</v>
       </c>
       <c r="D3086">
-        <v>194.25</v>
+        <v>194</v>
       </c>
       <c r="E3086" t="s">
         <v>2701</v>
@@ -60962,7 +60962,7 @@
         <v>1</v>
       </c>
       <c r="D3087">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="E3087" t="s">
         <v>2700</v>
@@ -60979,7 +60979,7 @@
         <v>14</v>
       </c>
       <c r="D3088">
-        <v>155.5936271019764</v>
+        <v>155.5880158437895</v>
       </c>
       <c r="E3088" t="s">
         <v>2701</v>
@@ -60996,7 +60996,7 @@
         <v>1</v>
       </c>
       <c r="D3089">
-        <v>1867.123525223717</v>
+        <v>1867.056190125474</v>
       </c>
       <c r="E3089" t="s">
         <v>2700</v>
@@ -61149,7 +61149,7 @@
         <v>7</v>
       </c>
       <c r="D3098">
-        <v>155.9771715293867</v>
+        <v>155.935909941455</v>
       </c>
       <c r="E3098" t="s">
         <v>2701</v>
@@ -61166,7 +61166,7 @@
         <v>1</v>
       </c>
       <c r="D3099">
-        <v>2339.6575729408</v>
+        <v>2339.038649121826</v>
       </c>
       <c r="E3099" t="s">
         <v>2700</v>
@@ -61183,7 +61183,7 @@
         <v>7</v>
       </c>
       <c r="D3100">
-        <v>122.3624371192558</v>
+        <v>121.9235694222539</v>
       </c>
       <c r="E3100" t="s">
         <v>2701</v>
@@ -61200,7 +61200,7 @@
         <v>1</v>
       </c>
       <c r="D3101">
-        <v>1835.436556788837</v>
+        <v>1828.853541333809</v>
       </c>
       <c r="E3101" t="s">
         <v>2700</v>
@@ -61217,7 +61217,7 @@
         <v>7</v>
       </c>
       <c r="D3102">
-        <v>121.8539354429697</v>
+        <v>121.6341554053327</v>
       </c>
       <c r="E3102" t="s">
         <v>2701</v>
@@ -61234,7 +61234,7 @@
         <v>1</v>
       </c>
       <c r="D3103">
-        <v>1827.809031644546</v>
+        <v>1824.512331079991</v>
       </c>
       <c r="E3103" t="s">
         <v>2700</v>
@@ -61268,7 +61268,7 @@
         <v>1</v>
       </c>
       <c r="D3105">
-        <v>75</v>
+        <v>76.25</v>
       </c>
       <c r="E3105" t="s">
         <v>2700</v>
@@ -61574,7 +61574,7 @@
         <v>2</v>
       </c>
       <c r="D3123">
-        <v>321.3305792546026</v>
+        <v>315.16625</v>
       </c>
       <c r="E3123" t="s">
         <v>2700</v>
@@ -61744,7 +61744,7 @@
         <v>4</v>
       </c>
       <c r="D3133">
-        <v>59.12963017521808</v>
+        <v>59.12962264358043</v>
       </c>
       <c r="E3133" t="s">
         <v>2701</v>
@@ -61761,7 +61761,7 @@
         <v>1</v>
       </c>
       <c r="D3134">
-        <v>1419.111124205234</v>
+        <v>1419.11094344593</v>
       </c>
       <c r="E3134" t="s">
         <v>2700</v>
@@ -61778,7 +61778,7 @@
         <v>3</v>
       </c>
       <c r="D3135">
-        <v>17.4676380249847</v>
+        <v>17.46763835767018</v>
       </c>
       <c r="E3135" t="s">
         <v>2701</v>
@@ -61795,7 +61795,7 @@
         <v>1</v>
       </c>
       <c r="D3136">
-        <v>1257.669937798898</v>
+        <v>1257.669961752253</v>
       </c>
       <c r="E3136" t="s">
         <v>2700</v>
@@ -61880,7 +61880,7 @@
         <v>3</v>
       </c>
       <c r="D3141">
-        <v>35.89019934957197</v>
+        <v>35.89027229268139</v>
       </c>
       <c r="E3141" t="s">
         <v>2701</v>
@@ -61897,7 +61897,7 @@
         <v>1</v>
       </c>
       <c r="D3142">
-        <v>1292.047176584591</v>
+        <v>1292.04980253653</v>
       </c>
       <c r="E3142" t="s">
         <v>2700</v>
@@ -61948,7 +61948,7 @@
         <v>3</v>
       </c>
       <c r="D3145">
-        <v>17.65075704188816</v>
+        <v>17.64965396586826</v>
       </c>
       <c r="E3145" t="s">
         <v>2701</v>
@@ -61965,7 +61965,7 @@
         <v>1</v>
       </c>
       <c r="D3146">
-        <v>1270.854507015947</v>
+        <v>1270.775085542515</v>
       </c>
       <c r="E3146" t="s">
         <v>2700</v>
@@ -62016,7 +62016,7 @@
         <v>4</v>
       </c>
       <c r="D3149">
-        <v>59.12963144172026</v>
+        <v>59.12963994288612</v>
       </c>
       <c r="E3149" t="s">
         <v>2701</v>
@@ -62033,7 +62033,7 @@
         <v>1</v>
       </c>
       <c r="D3150">
-        <v>1419.111154601286</v>
+        <v>1419.111358629267</v>
       </c>
       <c r="E3150" t="s">
         <v>2700</v>
@@ -62050,7 +62050,7 @@
         <v>3</v>
       </c>
       <c r="D3151">
-        <v>17.64749539897385</v>
+        <v>17.64751622249883</v>
       </c>
       <c r="E3151" t="s">
         <v>2701</v>
@@ -62067,7 +62067,7 @@
         <v>1</v>
       </c>
       <c r="D3152">
-        <v>1270.619668726117</v>
+        <v>1270.621168019916</v>
       </c>
       <c r="E3152" t="s">
         <v>2700</v>
@@ -62084,7 +62084,7 @@
         <v>3</v>
       </c>
       <c r="D3153">
-        <v>36.12537432140162</v>
+        <v>36.12539675265906</v>
       </c>
       <c r="E3153" t="s">
         <v>2701</v>
@@ -62101,7 +62101,7 @@
         <v>1</v>
       </c>
       <c r="D3154">
-        <v>1300.513475570458</v>
+        <v>1300.514283095726</v>
       </c>
       <c r="E3154" t="s">
         <v>2700</v>
@@ -62186,7 +62186,7 @@
         <v>4</v>
       </c>
       <c r="D3159">
-        <v>59.01192525264626</v>
+        <v>59.03328383433223</v>
       </c>
       <c r="E3159" t="s">
         <v>2701</v>
@@ -62203,7 +62203,7 @@
         <v>1</v>
       </c>
       <c r="D3160">
-        <v>1416.28620606351</v>
+        <v>1416.798812023974</v>
       </c>
       <c r="E3160" t="s">
         <v>2700</v>
@@ -62339,7 +62339,7 @@
         <v>3</v>
       </c>
       <c r="D3168">
-        <v>35.89033968162429</v>
+        <v>35.89033920078851</v>
       </c>
       <c r="E3168" t="s">
         <v>2701</v>
@@ -62356,7 +62356,7 @@
         <v>1</v>
       </c>
       <c r="D3169">
-        <v>1292.052228538475</v>
+        <v>1292.052211228386</v>
       </c>
       <c r="E3169" t="s">
         <v>2700</v>
@@ -62781,7 +62781,7 @@
         <v>29</v>
       </c>
       <c r="D3194">
-        <v>280.75</v>
+        <v>280.5</v>
       </c>
       <c r="E3194" t="s">
         <v>2700</v>
@@ -63101,7 +63101,7 @@
         <v>2159</v>
       </c>
       <c r="C3213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3213">
         <v>23.5</v>
@@ -63118,7 +63118,7 @@
         <v>2159</v>
       </c>
       <c r="C3214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3214">
         <v>23.5</v>
@@ -63274,7 +63274,7 @@
         <v>3</v>
       </c>
       <c r="D3223">
-        <v>139.3939138609818</v>
+        <v>139.3939128086388</v>
       </c>
       <c r="E3223" t="s">
         <v>2701</v>
@@ -63291,7 +63291,7 @@
         <v>1</v>
       </c>
       <c r="D3224">
-        <v>1672.726966331782</v>
+        <v>1672.726953703665</v>
       </c>
       <c r="E3224" t="s">
         <v>2700</v>
@@ -64396,7 +64396,7 @@
         <v>3</v>
       </c>
       <c r="D3289">
-        <v>17.57564639553875</v>
+        <v>17.57564941144319</v>
       </c>
       <c r="E3289" t="s">
         <v>2701</v>
@@ -64413,7 +64413,7 @@
         <v>1</v>
       </c>
       <c r="D3290">
-        <v>1265.44654047879</v>
+        <v>1265.44675762391</v>
       </c>
       <c r="E3290" t="s">
         <v>2700</v>
@@ -64430,7 +64430,7 @@
         <v>4</v>
       </c>
       <c r="D3291">
-        <v>59.12962144419001</v>
+        <v>59.1296252737459</v>
       </c>
       <c r="E3291" t="s">
         <v>2701</v>
@@ -64447,7 +64447,7 @@
         <v>1</v>
       </c>
       <c r="D3292">
-        <v>1419.11091466056</v>
+        <v>1419.111006569902</v>
       </c>
       <c r="E3292" t="s">
         <v>2700</v>
@@ -64940,7 +64940,7 @@
         <v>4</v>
       </c>
       <c r="D3321">
-        <v>566.25</v>
+        <v>561.75</v>
       </c>
       <c r="E3321" t="s">
         <v>2701</v>
@@ -64957,7 +64957,7 @@
         <v>1</v>
       </c>
       <c r="D3322">
-        <v>6795</v>
+        <v>6741</v>
       </c>
       <c r="E3322" t="s">
         <v>2700</v>
@@ -64974,7 +64974,7 @@
         <v>4</v>
       </c>
       <c r="D3323">
-        <v>729.25</v>
+        <v>728.75</v>
       </c>
       <c r="E3323" t="s">
         <v>2701</v>
@@ -64991,7 +64991,7 @@
         <v>1</v>
       </c>
       <c r="D3324">
-        <v>8751</v>
+        <v>8745</v>
       </c>
       <c r="E3324" t="s">
         <v>2700</v>
@@ -65008,7 +65008,7 @@
         <v>4</v>
       </c>
       <c r="D3325">
-        <v>604.75</v>
+        <v>604.5</v>
       </c>
       <c r="E3325" t="s">
         <v>2701</v>
@@ -65025,7 +65025,7 @@
         <v>1</v>
       </c>
       <c r="D3326">
-        <v>7257</v>
+        <v>7254</v>
       </c>
       <c r="E3326" t="s">
         <v>2700</v>
@@ -66181,7 +66181,7 @@
         <v>1</v>
       </c>
       <c r="D3394">
-        <v>880.5</v>
+        <v>881</v>
       </c>
       <c r="E3394" t="s">
         <v>2700</v>
@@ -70040,7 +70040,7 @@
         <v>5</v>
       </c>
       <c r="D3621">
-        <v>208.25</v>
+        <v>208.5</v>
       </c>
       <c r="E3621" t="s">
         <v>2700</v>
@@ -70108,7 +70108,7 @@
         <v>5</v>
       </c>
       <c r="D3625">
-        <v>206.75</v>
+        <v>207</v>
       </c>
       <c r="E3625" t="s">
         <v>2700</v>
@@ -71264,7 +71264,7 @@
         <v>3</v>
       </c>
       <c r="D3693">
-        <v>381.0612737464032</v>
+        <v>381.0614335289617</v>
       </c>
       <c r="E3693" t="s">
         <v>2701</v>
@@ -71281,7 +71281,7 @@
         <v>1</v>
       </c>
       <c r="D3694">
-        <v>4572.735284956838</v>
+        <v>4572.737202347541</v>
       </c>
       <c r="E3694" t="s">
         <v>2700</v>
@@ -75191,7 +75191,7 @@
         <v>23</v>
       </c>
       <c r="D3924">
-        <v>58.13473245243006</v>
+        <v>58.13473248801009</v>
       </c>
       <c r="E3924" t="s">
         <v>2701</v>
@@ -75208,7 +75208,7 @@
         <v>1</v>
       </c>
       <c r="D3925">
-        <v>2790.467157716643</v>
+        <v>2790.467159424485</v>
       </c>
       <c r="E3925" t="s">
         <v>2700</v>

--- a/Pricing Logic/WS_uploads/manual/output_1223_chunk_1.xlsx
+++ b/Pricing Logic/WS_uploads/manual/output_1223_chunk_1.xlsx
@@ -64,6 +64,9 @@
     <t>عصير بيتى مانجو - 235 مل</t>
   </si>
   <si>
+    <t>شويبس جولد اناناس - 1.75 لتر</t>
+  </si>
+  <si>
     <t>بيبسى - 2.43 لتر</t>
   </si>
   <si>
@@ -73,9 +76,6 @@
     <t>تويست مشروب طاقة -اوريجنال 250 مل</t>
   </si>
   <si>
-    <t>شويبس جولد اناناس - 1.75 لتر</t>
-  </si>
-  <si>
     <t>سوفى ماكسى بالمسك طويل سميكة عرض خاص - 16 فوطة</t>
   </si>
   <si>
@@ -448,6 +448,9 @@
     <t>اوكسى نسيم الربيع --Delisted 1.5 كجم</t>
   </si>
   <si>
+    <t>دقيق حبوبة - 1 كجم</t>
+  </si>
+  <si>
     <t>عصير كل يوم جوافة  - 225 مل</t>
   </si>
   <si>
@@ -460,21 +463,21 @@
     <t>حفاضات جود كير مقاس 4 - 58 حفاضة</t>
   </si>
   <si>
+    <t>حفاضات بيبى جوى مضغوطة جيب مانع للتسريب كبير مقاس 4 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>ريد مبيد للحشرات الزاحفه - 300 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى اناناس - 235 مل</t>
+  </si>
+  <si>
+    <t>فانتا برتقال جيب - 240 مل</t>
+  </si>
+  <si>
     <t>زيووو اراميش بافس جبنة - 5 جنية</t>
   </si>
   <si>
-    <t>حفاضات بيبى جوى مضغوطة جيب مانع للتسريب كبير مقاس 4 - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>ريد مبيد للحشرات الزاحفه - 300 مل</t>
-  </si>
-  <si>
-    <t>عصير بيتى اناناس - 235 مل</t>
-  </si>
-  <si>
-    <t>فانتا برتقال جيب - 240 مل</t>
-  </si>
-  <si>
     <t>لبن المراعى كامل الدسم - 200 مل</t>
   </si>
   <si>
@@ -511,39 +514,39 @@
     <t>اوكسى سائل اطباق ليمون أصفر ظرف 35 جرام</t>
   </si>
   <si>
+    <t>مناديل بابيا تواليت 3 طبقات 5 رول + 1 رول هدية - 6 رول</t>
+  </si>
+  <si>
     <t>زيووو شرائح كيرلي خضروات - 5 جنية</t>
   </si>
   <si>
-    <t>مناديل بابيا تواليت 3 طبقات 5 رول + 1 رول هدية - 6 رول</t>
+    <t>اوكسى اوتوماتيك نسيم الشرق 8 ك + 1 ك -delisted 9 كجم</t>
+  </si>
+  <si>
+    <t>ارز حبوبة رفيع - 1 كجم</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون اصفر - 600 جم</t>
+  </si>
+  <si>
+    <t>هارفست صلصة شرينك ٢ برطمان خصم   15 % --- 320 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بيبى جوى مضغوطة وسط مقاس 3 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>-اريال أتوماتيك داونى - 9 كجم</t>
+  </si>
+  <si>
+    <t>عصير كل يوم كوكتيل- 225 مل</t>
+  </si>
+  <si>
+    <t>مسحوق ليدر عادى لافندر - 65 جم</t>
   </si>
   <si>
     <t>زيووو اراميش بافس سجق - 5 جنية</t>
   </si>
   <si>
-    <t>اوكسى اوتوماتيك نسيم الشرق 8 ك + 1 ك -delisted 9 كجم</t>
-  </si>
-  <si>
-    <t>ارز حبوبة رفيع - 1 كجم</t>
-  </si>
-  <si>
-    <t>اوكسي سائل أطباق ليمون اصفر - 600 جم</t>
-  </si>
-  <si>
-    <t>هارفست صلصة شرينك ٢ برطمان خصم   15 % --- 320 جم</t>
-  </si>
-  <si>
-    <t>حفاضات بيبى جوى مضغوطة وسط مقاس 3 - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>-اريال أتوماتيك داونى - 9 كجم</t>
-  </si>
-  <si>
-    <t>عصير كل يوم كوكتيل- 225 مل</t>
-  </si>
-  <si>
-    <t>مسحوق ليدر عادى لافندر - 65 جم</t>
-  </si>
-  <si>
     <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
   </si>
   <si>
@@ -581,9 +584,6 @@
   </si>
   <si>
     <t>اوكسى جل يدوى لافندر - 30 جم</t>
-  </si>
-  <si>
-    <t>دقيق حبوبة - 1 كجم</t>
   </si>
   <si>
     <t>اوكسى يدوى نسيم الربيع (6 كيس) -Delisted 1 كجم</t>
@@ -8508,7 +8508,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>213</v>
+        <v>212.25</v>
       </c>
       <c r="E2" t="s">
         <v>2697</v>
@@ -8593,7 +8593,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
         <v>2697</v>
@@ -8610,7 +8610,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>187</v>
+        <v>184.75</v>
       </c>
       <c r="E8" t="s">
         <v>2697</v>
@@ -8627,7 +8627,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
         <v>2697</v>
@@ -8661,7 +8661,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>193.75</v>
+        <v>193.5</v>
       </c>
       <c r="E11" t="s">
         <v>2697</v>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>589</v>
+        <v>2327</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -8678,7 +8678,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>224</v>
+        <v>197.25</v>
       </c>
       <c r="E12" t="s">
         <v>2697</v>
@@ -8686,16 +8686,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>21793</v>
+        <v>589</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>115.75</v>
+        <v>225.75</v>
       </c>
       <c r="E13" t="s">
         <v>2697</v>
@@ -8703,16 +8703,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>11039</v>
+        <v>21793</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>264.75</v>
+        <v>114.75</v>
       </c>
       <c r="E14" t="s">
         <v>2697</v>
@@ -8720,7 +8720,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>2327</v>
+        <v>11039</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -8729,7 +8729,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>197.25</v>
+        <v>264.75</v>
       </c>
       <c r="E15" t="s">
         <v>2697</v>
@@ -8746,7 +8746,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>75.5</v>
+        <v>75.25</v>
       </c>
       <c r="E16" t="s">
         <v>2698</v>
@@ -8763,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E17" t="s">
         <v>2697</v>
@@ -8814,7 +8814,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>213</v>
+        <v>212.25</v>
       </c>
       <c r="E20" t="s">
         <v>2697</v>
@@ -8950,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>492</v>
+        <v>488.5</v>
       </c>
       <c r="E28" t="s">
         <v>2697</v>
@@ -9001,7 +9001,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>336.25</v>
+        <v>330.25</v>
       </c>
       <c r="E31" t="s">
         <v>2697</v>
@@ -9018,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>348.5</v>
+        <v>341</v>
       </c>
       <c r="E32" t="s">
         <v>2697</v>
@@ -9035,7 +9035,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>303.25</v>
+        <v>297.5</v>
       </c>
       <c r="E33" t="s">
         <v>2697</v>
@@ -9086,7 +9086,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>250.5</v>
+        <v>250.25</v>
       </c>
       <c r="E36" t="s">
         <v>2697</v>
@@ -9137,7 +9137,7 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>218.25</v>
+        <v>219.25</v>
       </c>
       <c r="E39" t="s">
         <v>2698</v>
@@ -9154,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1309.5</v>
+        <v>1315.5</v>
       </c>
       <c r="E40" t="s">
         <v>2697</v>
@@ -9188,7 +9188,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>218.75</v>
+        <v>219.75</v>
       </c>
       <c r="E42" t="s">
         <v>2697</v>
@@ -9222,7 +9222,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>332.75</v>
+        <v>332.25</v>
       </c>
       <c r="E44" t="s">
         <v>2697</v>
@@ -9273,7 +9273,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>272.75</v>
+        <v>269</v>
       </c>
       <c r="E47" t="s">
         <v>2697</v>
@@ -9290,7 +9290,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E48" t="s">
         <v>2697</v>
@@ -9307,7 +9307,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E49" t="s">
         <v>2697</v>
@@ -9375,7 +9375,7 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>187</v>
+        <v>184.75</v>
       </c>
       <c r="E53" t="s">
         <v>2697</v>
@@ -9392,7 +9392,7 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E54" t="s">
         <v>2697</v>
@@ -9511,7 +9511,7 @@
         <v>25</v>
       </c>
       <c r="D61">
-        <v>350</v>
+        <v>349.75</v>
       </c>
       <c r="E61" t="s">
         <v>2698</v>
@@ -9528,7 +9528,7 @@
         <v>29</v>
       </c>
       <c r="D62">
-        <v>1050</v>
+        <v>1049.25</v>
       </c>
       <c r="E62" t="s">
         <v>2697</v>
@@ -9579,7 +9579,7 @@
         <v>2</v>
       </c>
       <c r="D65">
-        <v>187</v>
+        <v>184.75</v>
       </c>
       <c r="E65" t="s">
         <v>2697</v>
@@ -9596,7 +9596,7 @@
         <v>2</v>
       </c>
       <c r="D66">
-        <v>170.75</v>
+        <v>169</v>
       </c>
       <c r="E66" t="s">
         <v>2697</v>
@@ -9630,7 +9630,7 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>291</v>
+        <v>289.5</v>
       </c>
       <c r="E68" t="s">
         <v>2697</v>
@@ -9698,7 +9698,7 @@
         <v>3</v>
       </c>
       <c r="D72">
-        <v>131</v>
+        <v>132.25</v>
       </c>
       <c r="E72" t="s">
         <v>2698</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>1572</v>
+        <v>1587</v>
       </c>
       <c r="E73" t="s">
         <v>2697</v>
@@ -9749,7 +9749,7 @@
         <v>2</v>
       </c>
       <c r="D75">
-        <v>272.75</v>
+        <v>269</v>
       </c>
       <c r="E75" t="s">
         <v>2697</v>
@@ -9868,7 +9868,7 @@
         <v>3</v>
       </c>
       <c r="D82">
-        <v>145</v>
+        <v>145.5</v>
       </c>
       <c r="E82" t="s">
         <v>2698</v>
@@ -9885,7 +9885,7 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E83" t="s">
         <v>2697</v>
@@ -9902,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>437</v>
+        <v>435.5</v>
       </c>
       <c r="E84" t="s">
         <v>2697</v>
@@ -9987,7 +9987,7 @@
         <v>2</v>
       </c>
       <c r="D89">
-        <v>550.75</v>
+        <v>550</v>
       </c>
       <c r="E89" t="s">
         <v>2697</v>
@@ -10072,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="D94">
-        <v>322.25</v>
+        <v>321.25</v>
       </c>
       <c r="E94" t="s">
         <v>2697</v>
@@ -10089,7 +10089,7 @@
         <v>2</v>
       </c>
       <c r="D95">
-        <v>187</v>
+        <v>184.75</v>
       </c>
       <c r="E95" t="s">
         <v>2697</v>
@@ -10106,7 +10106,7 @@
         <v>29</v>
       </c>
       <c r="D96">
-        <v>398.75</v>
+        <v>399</v>
       </c>
       <c r="E96" t="s">
         <v>2697</v>
@@ -10123,7 +10123,7 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>343</v>
+        <v>337.5</v>
       </c>
       <c r="E97" t="s">
         <v>2697</v>
@@ -10191,7 +10191,7 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>303.25</v>
+        <v>304.75</v>
       </c>
       <c r="E101" t="s">
         <v>2697</v>
@@ -10208,7 +10208,7 @@
         <v>2</v>
       </c>
       <c r="D102">
-        <v>291</v>
+        <v>289.5</v>
       </c>
       <c r="E102" t="s">
         <v>2697</v>
@@ -10276,7 +10276,7 @@
         <v>2</v>
       </c>
       <c r="D106">
-        <v>447.5</v>
+        <v>445</v>
       </c>
       <c r="E106" t="s">
         <v>2697</v>
@@ -10310,7 +10310,7 @@
         <v>2</v>
       </c>
       <c r="D108">
-        <v>500.25</v>
+        <v>499.75</v>
       </c>
       <c r="E108" t="s">
         <v>2697</v>
@@ -10446,7 +10446,7 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>547</v>
+        <v>537.75</v>
       </c>
       <c r="E116" t="s">
         <v>2697</v>
@@ -10480,7 +10480,7 @@
         <v>2</v>
       </c>
       <c r="D118">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E118" t="s">
         <v>2697</v>
@@ -10633,7 +10633,7 @@
         <v>25</v>
       </c>
       <c r="D127">
-        <v>301.25</v>
+        <v>301.5</v>
       </c>
       <c r="E127" t="s">
         <v>2698</v>
@@ -10650,7 +10650,7 @@
         <v>29</v>
       </c>
       <c r="D128">
-        <v>903.75</v>
+        <v>904.5</v>
       </c>
       <c r="E128" t="s">
         <v>2697</v>
@@ -10667,7 +10667,7 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>503.5</v>
+        <v>495.5</v>
       </c>
       <c r="E129" t="s">
         <v>2697</v>
@@ -10735,7 +10735,7 @@
         <v>2</v>
       </c>
       <c r="D133">
-        <v>272.75</v>
+        <v>269</v>
       </c>
       <c r="E133" t="s">
         <v>2697</v>
@@ -10786,7 +10786,7 @@
         <v>2</v>
       </c>
       <c r="D136">
-        <v>550.75</v>
+        <v>550</v>
       </c>
       <c r="E136" t="s">
         <v>2697</v>
@@ -10803,7 +10803,7 @@
         <v>2</v>
       </c>
       <c r="D137">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E137" t="s">
         <v>2697</v>
@@ -10922,7 +10922,7 @@
         <v>2</v>
       </c>
       <c r="D144">
-        <v>122.5</v>
+        <v>122.75</v>
       </c>
       <c r="E144" t="s">
         <v>2697</v>
@@ -10956,7 +10956,7 @@
         <v>2</v>
       </c>
       <c r="D146">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E146" t="s">
         <v>2697</v>
@@ -11007,7 +11007,7 @@
         <v>25</v>
       </c>
       <c r="D149">
-        <v>303.25</v>
+        <v>303</v>
       </c>
       <c r="E149" t="s">
         <v>2698</v>
@@ -11024,7 +11024,7 @@
         <v>29</v>
       </c>
       <c r="D150">
-        <v>909.75</v>
+        <v>909</v>
       </c>
       <c r="E150" t="s">
         <v>2697</v>
@@ -11058,7 +11058,7 @@
         <v>25</v>
       </c>
       <c r="D152">
-        <v>303.5</v>
+        <v>303.25</v>
       </c>
       <c r="E152" t="s">
         <v>2698</v>
@@ -11075,7 +11075,7 @@
         <v>2</v>
       </c>
       <c r="D153">
-        <v>910.5</v>
+        <v>909.75</v>
       </c>
       <c r="E153" t="s">
         <v>2697</v>
@@ -11109,7 +11109,7 @@
         <v>2</v>
       </c>
       <c r="D155">
-        <v>500.25</v>
+        <v>499.75</v>
       </c>
       <c r="E155" t="s">
         <v>2697</v>
@@ -11194,7 +11194,7 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>311.75</v>
+        <v>306.5</v>
       </c>
       <c r="E160" t="s">
         <v>2697</v>
@@ -11211,7 +11211,7 @@
         <v>10</v>
       </c>
       <c r="D161">
-        <v>423</v>
+        <v>422.75</v>
       </c>
       <c r="E161" t="s">
         <v>2698</v>
@@ -11228,7 +11228,7 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>846</v>
+        <v>845.5</v>
       </c>
       <c r="E162" t="s">
         <v>2697</v>
@@ -11296,7 +11296,7 @@
         <v>2</v>
       </c>
       <c r="D166">
-        <v>332.75</v>
+        <v>332.25</v>
       </c>
       <c r="E166" t="s">
         <v>2697</v>
@@ -11313,7 +11313,7 @@
         <v>2</v>
       </c>
       <c r="D167">
-        <v>500.25</v>
+        <v>499.75</v>
       </c>
       <c r="E167" t="s">
         <v>2697</v>
@@ -11347,7 +11347,7 @@
         <v>2</v>
       </c>
       <c r="D169">
-        <v>122.5</v>
+        <v>122.75</v>
       </c>
       <c r="E169" t="s">
         <v>2697</v>
@@ -11406,7 +11406,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>995</v>
+        <v>75</v>
       </c>
       <c r="B173" t="s">
         <v>144</v>
@@ -11415,7 +11415,7 @@
         <v>2</v>
       </c>
       <c r="D173">
-        <v>122.5</v>
+        <v>199</v>
       </c>
       <c r="E173" t="s">
         <v>2697</v>
@@ -11423,16 +11423,16 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <v>11953</v>
+        <v>995</v>
       </c>
       <c r="B174" t="s">
         <v>145</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>142.25</v>
+        <v>122.75</v>
       </c>
       <c r="E174" t="s">
         <v>2697</v>
@@ -11440,19 +11440,19 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>2108</v>
+        <v>11953</v>
       </c>
       <c r="B175" t="s">
         <v>146</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>110.5</v>
+        <v>142.25</v>
       </c>
       <c r="E175" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -11460,33 +11460,33 @@
         <v>2108</v>
       </c>
       <c r="B176" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D176">
-        <v>663</v>
+        <v>110.75</v>
       </c>
       <c r="E176" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>9997</v>
+        <v>2108</v>
       </c>
       <c r="B177" t="s">
         <v>147</v>
       </c>
       <c r="C177">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>217.75</v>
+        <v>664.5</v>
       </c>
       <c r="E177" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -11494,30 +11494,30 @@
         <v>9997</v>
       </c>
       <c r="B178" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C178">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D178">
-        <v>653.25</v>
+        <v>217.75</v>
       </c>
       <c r="E178" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>12350</v>
+        <v>9997</v>
       </c>
       <c r="B179" t="s">
         <v>148</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D179">
-        <v>45.75</v>
+        <v>653.25</v>
       </c>
       <c r="E179" t="s">
         <v>2697</v>
@@ -11602,7 +11602,7 @@
         <v>2</v>
       </c>
       <c r="D184">
-        <v>193.75</v>
+        <v>193.5</v>
       </c>
       <c r="E184" t="s">
         <v>2697</v>
@@ -11619,7 +11619,7 @@
         <v>2</v>
       </c>
       <c r="D185">
-        <v>291</v>
+        <v>289.5</v>
       </c>
       <c r="E185" t="s">
         <v>2697</v>
@@ -11627,16 +11627,16 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>955</v>
+        <v>12350</v>
       </c>
       <c r="B186" t="s">
         <v>153</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>271</v>
+        <v>45.75</v>
       </c>
       <c r="E186" t="s">
         <v>2697</v>
@@ -11644,7 +11644,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>11150</v>
+        <v>955</v>
       </c>
       <c r="B187" t="s">
         <v>154</v>
@@ -11653,10 +11653,10 @@
         <v>2</v>
       </c>
       <c r="D187">
-        <v>81.5</v>
+        <v>271</v>
       </c>
       <c r="E187" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -11664,33 +11664,33 @@
         <v>11150</v>
       </c>
       <c r="B188" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>652</v>
+        <v>81.5</v>
       </c>
       <c r="E188" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>10719</v>
+        <v>11150</v>
       </c>
       <c r="B189" t="s">
         <v>155</v>
       </c>
       <c r="C189">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>285.75</v>
+        <v>652</v>
       </c>
       <c r="E189" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -11698,33 +11698,33 @@
         <v>10719</v>
       </c>
       <c r="B190" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C190">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D190">
-        <v>857.25</v>
+        <v>285.75</v>
       </c>
       <c r="E190" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <v>201</v>
+        <v>10719</v>
       </c>
       <c r="B191" t="s">
         <v>156</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D191">
-        <v>92.75</v>
+        <v>857.25</v>
       </c>
       <c r="E191" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -11732,21 +11732,21 @@
         <v>201</v>
       </c>
       <c r="B192" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D192">
-        <v>927.5</v>
+        <v>92.75</v>
       </c>
       <c r="E192" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>22236</v>
+        <v>201</v>
       </c>
       <c r="B193" t="s">
         <v>157</v>
@@ -11755,7 +11755,7 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>126.5</v>
+        <v>927.5</v>
       </c>
       <c r="E193" t="s">
         <v>2697</v>
@@ -11763,19 +11763,19 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>23380</v>
+        <v>22236</v>
       </c>
       <c r="B194" t="s">
         <v>158</v>
       </c>
       <c r="C194">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>301.25</v>
+        <v>126.5</v>
       </c>
       <c r="E194" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -11783,30 +11783,30 @@
         <v>23380</v>
       </c>
       <c r="B195" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C195">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D195">
-        <v>903.75</v>
+        <v>301.5</v>
       </c>
       <c r="E195" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>415</v>
+        <v>23380</v>
       </c>
       <c r="B196" t="s">
         <v>159</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D196">
-        <v>336.25</v>
+        <v>904.5</v>
       </c>
       <c r="E196" t="s">
         <v>2697</v>
@@ -11814,7 +11814,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>9691</v>
+        <v>415</v>
       </c>
       <c r="B197" t="s">
         <v>160</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>382</v>
+        <v>330.25</v>
       </c>
       <c r="E197" t="s">
         <v>2697</v>
@@ -11831,19 +11831,19 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>9207</v>
+        <v>9691</v>
       </c>
       <c r="B198" t="s">
         <v>161</v>
       </c>
       <c r="C198">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>247.25</v>
+        <v>382.25</v>
       </c>
       <c r="E198" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -11851,21 +11851,21 @@
         <v>9207</v>
       </c>
       <c r="B199" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C199">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D199">
-        <v>741.75</v>
+        <v>247.25</v>
       </c>
       <c r="E199" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>13260</v>
+        <v>9207</v>
       </c>
       <c r="B200" t="s">
         <v>162</v>
@@ -11874,7 +11874,7 @@
         <v>29</v>
       </c>
       <c r="D200">
-        <v>396.25</v>
+        <v>741.75</v>
       </c>
       <c r="E200" t="s">
         <v>2697</v>
@@ -11882,19 +11882,19 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201">
-        <v>11426</v>
+        <v>13260</v>
       </c>
       <c r="B201" t="s">
         <v>163</v>
       </c>
       <c r="C201">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D201">
-        <v>241.25</v>
+        <v>396.25</v>
       </c>
       <c r="E201" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -11902,30 +11902,30 @@
         <v>11426</v>
       </c>
       <c r="B202" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C202">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D202">
-        <v>723.75</v>
+        <v>241.25</v>
       </c>
       <c r="E202" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
-        <v>11587</v>
+        <v>11426</v>
       </c>
       <c r="B203" t="s">
         <v>164</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D203">
-        <v>73</v>
+        <v>723.75</v>
       </c>
       <c r="E203" t="s">
         <v>2697</v>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204">
-        <v>12346</v>
+        <v>11587</v>
       </c>
       <c r="B204" t="s">
         <v>165</v>
@@ -11942,7 +11942,7 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>45.75</v>
+        <v>73</v>
       </c>
       <c r="E204" t="s">
         <v>2697</v>
@@ -11967,7 +11967,7 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
-        <v>12353</v>
+        <v>12346</v>
       </c>
       <c r="B206" t="s">
         <v>167</v>
@@ -12027,7 +12027,7 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>303.25</v>
+        <v>304.75</v>
       </c>
       <c r="E209" t="s">
         <v>2697</v>
@@ -12095,7 +12095,7 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>936</v>
+        <v>934.75</v>
       </c>
       <c r="E213" t="s">
         <v>2697</v>
@@ -12112,7 +12112,7 @@
         <v>2</v>
       </c>
       <c r="D214">
-        <v>122.5</v>
+        <v>122.75</v>
       </c>
       <c r="E214" t="s">
         <v>2697</v>
@@ -12129,7 +12129,7 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>83.75</v>
+        <v>84</v>
       </c>
       <c r="E215" t="s">
         <v>2697</v>
@@ -12137,19 +12137,19 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>8216</v>
+        <v>12353</v>
       </c>
       <c r="B216" t="s">
         <v>176</v>
       </c>
       <c r="C216">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>13.75</v>
+        <v>45.75</v>
       </c>
       <c r="E216" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -12157,30 +12157,30 @@
         <v>8216</v>
       </c>
       <c r="B217" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D217">
-        <v>330</v>
+        <v>13.75</v>
       </c>
       <c r="E217" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218">
-        <v>84</v>
+        <v>8216</v>
       </c>
       <c r="B218" t="s">
         <v>177</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>413</v>
+        <v>330</v>
       </c>
       <c r="E218" t="s">
         <v>2697</v>
@@ -12188,16 +12188,16 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219">
-        <v>21809</v>
+        <v>84</v>
       </c>
       <c r="B219" t="s">
         <v>178</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>300.5</v>
+        <v>413</v>
       </c>
       <c r="E219" t="s">
         <v>2697</v>
@@ -12205,19 +12205,19 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220">
-        <v>62</v>
+        <v>21809</v>
       </c>
       <c r="B220" t="s">
         <v>179</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>83</v>
+        <v>300.5</v>
       </c>
       <c r="E220" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -12225,30 +12225,30 @@
         <v>62</v>
       </c>
       <c r="B221" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D221">
-        <v>3984</v>
+        <v>83</v>
       </c>
       <c r="E221" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>24726</v>
+        <v>62</v>
       </c>
       <c r="B222" t="s">
         <v>180</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>447.5</v>
+        <v>3984</v>
       </c>
       <c r="E222" t="s">
         <v>2697</v>
@@ -12256,19 +12256,19 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
-        <v>10721</v>
+        <v>24726</v>
       </c>
       <c r="B223" t="s">
         <v>181</v>
       </c>
       <c r="C223">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>281.5</v>
+        <v>445</v>
       </c>
       <c r="E223" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -12276,33 +12276,33 @@
         <v>10721</v>
       </c>
       <c r="B224" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C224">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D224">
-        <v>844.5</v>
+        <v>281.5</v>
       </c>
       <c r="E224" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <v>2438</v>
+        <v>10721</v>
       </c>
       <c r="B225" t="s">
         <v>182</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D225">
-        <v>44.75</v>
+        <v>844.5</v>
       </c>
       <c r="E225" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -12310,21 +12310,21 @@
         <v>2438</v>
       </c>
       <c r="B226" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>537</v>
+        <v>44.75</v>
       </c>
       <c r="E226" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <v>10174</v>
+        <v>2438</v>
       </c>
       <c r="B227" t="s">
         <v>183</v>
@@ -12333,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="D227">
-        <v>724.75</v>
+        <v>537</v>
       </c>
       <c r="E227" t="s">
         <v>2697</v>
@@ -12341,7 +12341,7 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <v>148</v>
+        <v>10174</v>
       </c>
       <c r="B228" t="s">
         <v>184</v>
@@ -12350,7 +12350,7 @@
         <v>1</v>
       </c>
       <c r="D228">
-        <v>324.75</v>
+        <v>724.75</v>
       </c>
       <c r="E228" t="s">
         <v>2697</v>
@@ -12358,16 +12358,16 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
-        <v>7630</v>
+        <v>148</v>
       </c>
       <c r="B229" t="s">
         <v>185</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>217</v>
+        <v>324.75</v>
       </c>
       <c r="E229" t="s">
         <v>2697</v>
@@ -12375,7 +12375,7 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <v>24727</v>
+        <v>7630</v>
       </c>
       <c r="B230" t="s">
         <v>186</v>
@@ -12384,7 +12384,7 @@
         <v>2</v>
       </c>
       <c r="D230">
-        <v>447.5</v>
+        <v>217</v>
       </c>
       <c r="E230" t="s">
         <v>2697</v>
@@ -12392,7 +12392,7 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <v>12764</v>
+        <v>24727</v>
       </c>
       <c r="B231" t="s">
         <v>187</v>
@@ -12401,10 +12401,10 @@
         <v>2</v>
       </c>
       <c r="D231">
-        <v>39.25</v>
+        <v>445</v>
       </c>
       <c r="E231" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -12412,21 +12412,21 @@
         <v>12764</v>
       </c>
       <c r="B232" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>471</v>
+        <v>39.25</v>
       </c>
       <c r="E232" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <v>11159</v>
+        <v>12764</v>
       </c>
       <c r="B233" t="s">
         <v>188</v>
@@ -12435,7 +12435,7 @@
         <v>1</v>
       </c>
       <c r="D233">
-        <v>56.5</v>
+        <v>471</v>
       </c>
       <c r="E233" t="s">
         <v>2697</v>
@@ -12443,16 +12443,16 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <v>75</v>
+        <v>11159</v>
       </c>
       <c r="B234" t="s">
         <v>189</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>199</v>
+        <v>56.5</v>
       </c>
       <c r="E234" t="s">
         <v>2697</v>
@@ -12520,7 +12520,7 @@
         <v>2</v>
       </c>
       <c r="D238">
-        <v>322.25</v>
+        <v>321.25</v>
       </c>
       <c r="E238" t="s">
         <v>2697</v>
@@ -12622,7 +12622,7 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>347.5</v>
+        <v>347.25</v>
       </c>
       <c r="E244" t="s">
         <v>2697</v>
@@ -12673,7 +12673,7 @@
         <v>1</v>
       </c>
       <c r="D247">
-        <v>254</v>
+        <v>248.5</v>
       </c>
       <c r="E247" t="s">
         <v>2697</v>
@@ -12860,7 +12860,7 @@
         <v>25</v>
       </c>
       <c r="D258">
-        <v>303.5</v>
+        <v>303.25</v>
       </c>
       <c r="E258" t="s">
         <v>2698</v>
@@ -12877,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="D259">
-        <v>910.5</v>
+        <v>909.75</v>
       </c>
       <c r="E259" t="s">
         <v>2697</v>
@@ -12962,7 +12962,7 @@
         <v>25</v>
       </c>
       <c r="D264">
-        <v>350</v>
+        <v>349.75</v>
       </c>
       <c r="E264" t="s">
         <v>2698</v>
@@ -12979,7 +12979,7 @@
         <v>29</v>
       </c>
       <c r="D265">
-        <v>1050</v>
+        <v>1049.25</v>
       </c>
       <c r="E265" t="s">
         <v>2697</v>
@@ -12996,7 +12996,7 @@
         <v>3</v>
       </c>
       <c r="D266">
-        <v>603.5</v>
+        <v>602.25</v>
       </c>
       <c r="E266" t="s">
         <v>2698</v>
@@ -13013,7 +13013,7 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>4828</v>
+        <v>4818</v>
       </c>
       <c r="E267" t="s">
         <v>2697</v>
@@ -13030,7 +13030,7 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <v>191.5</v>
+        <v>195</v>
       </c>
       <c r="E268" t="s">
         <v>2697</v>
@@ -13047,7 +13047,7 @@
         <v>3</v>
       </c>
       <c r="D269">
-        <v>30.75</v>
+        <v>31</v>
       </c>
       <c r="E269" t="s">
         <v>2698</v>
@@ -13064,7 +13064,7 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>1230</v>
+        <v>1240</v>
       </c>
       <c r="E270" t="s">
         <v>2697</v>
@@ -13149,7 +13149,7 @@
         <v>2</v>
       </c>
       <c r="D275">
-        <v>207.25</v>
+        <v>207</v>
       </c>
       <c r="E275" t="s">
         <v>2697</v>
@@ -13234,7 +13234,7 @@
         <v>29</v>
       </c>
       <c r="D280">
-        <v>164</v>
+        <v>163.75</v>
       </c>
       <c r="E280" t="s">
         <v>2697</v>
@@ -13336,7 +13336,7 @@
         <v>2</v>
       </c>
       <c r="D286">
-        <v>400</v>
+        <v>399.5</v>
       </c>
       <c r="E286" t="s">
         <v>2697</v>
@@ -13353,7 +13353,7 @@
         <v>25</v>
       </c>
       <c r="D287">
-        <v>257.25</v>
+        <v>257</v>
       </c>
       <c r="E287" t="s">
         <v>2698</v>
@@ -13370,7 +13370,7 @@
         <v>29</v>
       </c>
       <c r="D288">
-        <v>771.75</v>
+        <v>771</v>
       </c>
       <c r="E288" t="s">
         <v>2697</v>
@@ -13387,7 +13387,7 @@
         <v>1</v>
       </c>
       <c r="D289">
-        <v>272.75</v>
+        <v>269</v>
       </c>
       <c r="E289" t="s">
         <v>2697</v>
@@ -13659,7 +13659,7 @@
         <v>1</v>
       </c>
       <c r="D305">
-        <v>254</v>
+        <v>248.5</v>
       </c>
       <c r="E305" t="s">
         <v>2697</v>
@@ -13727,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E309" t="s">
         <v>2697</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="D312">
-        <v>347.5</v>
+        <v>347.25</v>
       </c>
       <c r="E312" t="s">
         <v>2697</v>
@@ -14084,7 +14084,7 @@
         <v>2</v>
       </c>
       <c r="D330">
-        <v>121.5</v>
+        <v>118.75</v>
       </c>
       <c r="E330" t="s">
         <v>2697</v>
@@ -14101,7 +14101,7 @@
         <v>68</v>
       </c>
       <c r="D331">
-        <v>566</v>
+        <v>567.5</v>
       </c>
       <c r="E331" t="s">
         <v>2698</v>
@@ -14118,7 +14118,7 @@
         <v>3</v>
       </c>
       <c r="D332">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="E332" t="s">
         <v>2697</v>
@@ -14135,7 +14135,7 @@
         <v>1</v>
       </c>
       <c r="D333">
-        <v>6792</v>
+        <v>6810</v>
       </c>
       <c r="E333" t="s">
         <v>2697</v>
@@ -14458,7 +14458,7 @@
         <v>2</v>
       </c>
       <c r="D352">
-        <v>213.25</v>
+        <v>213.5</v>
       </c>
       <c r="E352" t="s">
         <v>2697</v>
@@ -14628,7 +14628,7 @@
         <v>25</v>
       </c>
       <c r="D362">
-        <v>325.5</v>
+        <v>325.75</v>
       </c>
       <c r="E362" t="s">
         <v>2698</v>
@@ -14645,7 +14645,7 @@
         <v>29</v>
       </c>
       <c r="D363">
-        <v>976.5</v>
+        <v>977.25</v>
       </c>
       <c r="E363" t="s">
         <v>2697</v>
@@ -14764,7 +14764,7 @@
         <v>1</v>
       </c>
       <c r="D370">
-        <v>254</v>
+        <v>248.5</v>
       </c>
       <c r="E370" t="s">
         <v>2697</v>
@@ -14900,7 +14900,7 @@
         <v>2</v>
       </c>
       <c r="D378">
-        <v>500.25</v>
+        <v>499.75</v>
       </c>
       <c r="E378" t="s">
         <v>2697</v>
@@ -14951,7 +14951,7 @@
         <v>4</v>
       </c>
       <c r="D381">
-        <v>348</v>
+        <v>345.5</v>
       </c>
       <c r="E381" t="s">
         <v>2697</v>
@@ -15036,7 +15036,7 @@
         <v>2</v>
       </c>
       <c r="D386">
-        <v>108.5</v>
+        <v>106.5</v>
       </c>
       <c r="E386" t="s">
         <v>2697</v>
@@ -15206,7 +15206,7 @@
         <v>2</v>
       </c>
       <c r="D396">
-        <v>447.5</v>
+        <v>445</v>
       </c>
       <c r="E396" t="s">
         <v>2697</v>
@@ -15373,7 +15373,7 @@
         <v>310</v>
       </c>
       <c r="C406">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D406">
         <v>44.5</v>
@@ -15390,7 +15390,7 @@
         <v>310</v>
       </c>
       <c r="C407">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D407">
         <v>44.5</v>
@@ -15495,7 +15495,7 @@
         <v>23</v>
       </c>
       <c r="D413">
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="E413" t="s">
         <v>2698</v>
@@ -15512,7 +15512,7 @@
         <v>1</v>
       </c>
       <c r="D414">
-        <v>1032</v>
+        <v>1044</v>
       </c>
       <c r="E414" t="s">
         <v>2697</v>
@@ -15597,7 +15597,7 @@
         <v>2</v>
       </c>
       <c r="D419">
-        <v>500.25</v>
+        <v>499.75</v>
       </c>
       <c r="E419" t="s">
         <v>2697</v>
@@ -15699,7 +15699,7 @@
         <v>2</v>
       </c>
       <c r="D425">
-        <v>109.75</v>
+        <v>107.5</v>
       </c>
       <c r="E425" t="s">
         <v>2697</v>
@@ -15733,7 +15733,7 @@
         <v>25</v>
       </c>
       <c r="D427">
-        <v>301.75</v>
+        <v>300.75</v>
       </c>
       <c r="E427" t="s">
         <v>2698</v>
@@ -15750,7 +15750,7 @@
         <v>29</v>
       </c>
       <c r="D428">
-        <v>905.25</v>
+        <v>902.25</v>
       </c>
       <c r="E428" t="s">
         <v>2697</v>
@@ -15767,7 +15767,7 @@
         <v>25</v>
       </c>
       <c r="D429">
-        <v>301.75</v>
+        <v>300.75</v>
       </c>
       <c r="E429" t="s">
         <v>2698</v>
@@ -15784,7 +15784,7 @@
         <v>29</v>
       </c>
       <c r="D430">
-        <v>905.25</v>
+        <v>902.25</v>
       </c>
       <c r="E430" t="s">
         <v>2697</v>
@@ -15852,7 +15852,7 @@
         <v>1</v>
       </c>
       <c r="D434">
-        <v>347.5</v>
+        <v>347.25</v>
       </c>
       <c r="E434" t="s">
         <v>2697</v>
@@ -16260,7 +16260,7 @@
         <v>3</v>
       </c>
       <c r="D458">
-        <v>52</v>
+        <v>52.75</v>
       </c>
       <c r="E458" t="s">
         <v>2698</v>
@@ -16277,7 +16277,7 @@
         <v>1</v>
       </c>
       <c r="D459">
-        <v>1560</v>
+        <v>1582.5</v>
       </c>
       <c r="E459" t="s">
         <v>2697</v>
@@ -16311,7 +16311,7 @@
         <v>2</v>
       </c>
       <c r="D461">
-        <v>500.25</v>
+        <v>499.75</v>
       </c>
       <c r="E461" t="s">
         <v>2697</v>
@@ -16430,7 +16430,7 @@
         <v>1</v>
       </c>
       <c r="D468">
-        <v>716.75</v>
+        <v>717</v>
       </c>
       <c r="E468" t="s">
         <v>2697</v>
@@ -16447,7 +16447,7 @@
         <v>1</v>
       </c>
       <c r="D469">
-        <v>713.75</v>
+        <v>714.25</v>
       </c>
       <c r="E469" t="s">
         <v>2697</v>
@@ -16719,7 +16719,7 @@
         <v>2</v>
       </c>
       <c r="D485">
-        <v>107.5</v>
+        <v>107</v>
       </c>
       <c r="E485" t="s">
         <v>2697</v>
@@ -17263,7 +17263,7 @@
         <v>3</v>
       </c>
       <c r="D517">
-        <v>47.75</v>
+        <v>48.25</v>
       </c>
       <c r="E517" t="s">
         <v>2698</v>
@@ -17280,7 +17280,7 @@
         <v>1</v>
       </c>
       <c r="D518">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="E518" t="s">
         <v>2697</v>
@@ -17467,7 +17467,7 @@
         <v>23</v>
       </c>
       <c r="D529">
-        <v>43.25</v>
+        <v>43.5</v>
       </c>
       <c r="E529" t="s">
         <v>2698</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="D530">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="E530" t="s">
         <v>2697</v>
@@ -17654,7 +17654,7 @@
         <v>10</v>
       </c>
       <c r="D540">
-        <v>41</v>
+        <v>40.75</v>
       </c>
       <c r="E540" t="s">
         <v>2698</v>
@@ -17671,7 +17671,7 @@
         <v>16</v>
       </c>
       <c r="D541">
-        <v>246</v>
+        <v>244.5</v>
       </c>
       <c r="E541" t="s">
         <v>2697</v>
@@ -17688,7 +17688,7 @@
         <v>1</v>
       </c>
       <c r="D542">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E542" t="s">
         <v>2697</v>
@@ -17705,7 +17705,7 @@
         <v>25</v>
       </c>
       <c r="D543">
-        <v>325.5</v>
+        <v>325.75</v>
       </c>
       <c r="E543" t="s">
         <v>2698</v>
@@ -17722,7 +17722,7 @@
         <v>29</v>
       </c>
       <c r="D544">
-        <v>976.5</v>
+        <v>977.25</v>
       </c>
       <c r="E544" t="s">
         <v>2697</v>
@@ -17739,7 +17739,7 @@
         <v>1</v>
       </c>
       <c r="D545">
-        <v>45.75</v>
+        <v>45.25</v>
       </c>
       <c r="E545" t="s">
         <v>2697</v>
@@ -18283,7 +18283,7 @@
         <v>12</v>
       </c>
       <c r="D577">
-        <v>383.5</v>
+        <v>383.25</v>
       </c>
       <c r="E577" t="s">
         <v>2697</v>
@@ -18385,7 +18385,7 @@
         <v>2</v>
       </c>
       <c r="D583">
-        <v>257.75</v>
+        <v>258</v>
       </c>
       <c r="E583" t="s">
         <v>2697</v>
@@ -18521,7 +18521,7 @@
         <v>1</v>
       </c>
       <c r="D591">
-        <v>153.75</v>
+        <v>154</v>
       </c>
       <c r="E591" t="s">
         <v>2697</v>
@@ -18606,7 +18606,7 @@
         <v>1</v>
       </c>
       <c r="D596">
-        <v>383.25</v>
+        <v>381.25</v>
       </c>
       <c r="E596" t="s">
         <v>2697</v>
@@ -18810,7 +18810,7 @@
         <v>1</v>
       </c>
       <c r="D608">
-        <v>32.25</v>
+        <v>32.5</v>
       </c>
       <c r="E608" t="s">
         <v>2697</v>
@@ -18997,7 +18997,7 @@
         <v>5</v>
       </c>
       <c r="D619">
-        <v>50.75</v>
+        <v>51</v>
       </c>
       <c r="E619" t="s">
         <v>2697</v>
@@ -19201,7 +19201,7 @@
         <v>3</v>
       </c>
       <c r="D631">
-        <v>47.75</v>
+        <v>48.25</v>
       </c>
       <c r="E631" t="s">
         <v>2698</v>
@@ -19218,7 +19218,7 @@
         <v>1</v>
       </c>
       <c r="D632">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="E632" t="s">
         <v>2697</v>
@@ -19303,7 +19303,7 @@
         <v>1</v>
       </c>
       <c r="D637">
-        <v>272.75</v>
+        <v>269</v>
       </c>
       <c r="E637" t="s">
         <v>2697</v>
@@ -19354,7 +19354,7 @@
         <v>5</v>
       </c>
       <c r="D640">
-        <v>50.75</v>
+        <v>51</v>
       </c>
       <c r="E640" t="s">
         <v>2697</v>
@@ -19371,7 +19371,7 @@
         <v>1</v>
       </c>
       <c r="D641">
-        <v>253.75</v>
+        <v>247</v>
       </c>
       <c r="E641" t="s">
         <v>2697</v>
@@ -19881,7 +19881,7 @@
         <v>4</v>
       </c>
       <c r="D671">
-        <v>175</v>
+        <v>174.75</v>
       </c>
       <c r="E671" t="s">
         <v>2698</v>
@@ -19898,7 +19898,7 @@
         <v>1</v>
       </c>
       <c r="D672">
-        <v>3500</v>
+        <v>3495</v>
       </c>
       <c r="E672" t="s">
         <v>2697</v>
@@ -19915,7 +19915,7 @@
         <v>4</v>
       </c>
       <c r="D673">
-        <v>199</v>
+        <v>198.75</v>
       </c>
       <c r="E673" t="s">
         <v>2698</v>
@@ -19932,7 +19932,7 @@
         <v>1</v>
       </c>
       <c r="D674">
-        <v>3980</v>
+        <v>3975</v>
       </c>
       <c r="E674" t="s">
         <v>2697</v>
@@ -20969,7 +20969,7 @@
         <v>3</v>
       </c>
       <c r="D735">
-        <v>115.9175</v>
+        <v>116.9125</v>
       </c>
       <c r="E735" t="s">
         <v>2698</v>
@@ -20986,7 +20986,7 @@
         <v>1</v>
       </c>
       <c r="D736">
-        <v>695.505</v>
+        <v>701.4749999999999</v>
       </c>
       <c r="E736" t="s">
         <v>2697</v>
@@ -21156,7 +21156,7 @@
         <v>3</v>
       </c>
       <c r="D746">
-        <v>114.3579609252943</v>
+        <v>114.3579609252944</v>
       </c>
       <c r="E746" t="s">
         <v>2698</v>
@@ -21173,7 +21173,7 @@
         <v>1</v>
       </c>
       <c r="D747">
-        <v>686.1477655517659</v>
+        <v>686.1477655517662</v>
       </c>
       <c r="E747" t="s">
         <v>2697</v>
@@ -21241,7 +21241,7 @@
         <v>2</v>
       </c>
       <c r="D751">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E751" t="s">
         <v>2697</v>
@@ -21258,7 +21258,7 @@
         <v>2</v>
       </c>
       <c r="D752">
-        <v>71.75</v>
+        <v>70.75</v>
       </c>
       <c r="E752" t="s">
         <v>2697</v>
@@ -21275,7 +21275,7 @@
         <v>2</v>
       </c>
       <c r="D753">
-        <v>71.25</v>
+        <v>70.25</v>
       </c>
       <c r="E753" t="s">
         <v>2697</v>
@@ -21394,7 +21394,7 @@
         <v>21</v>
       </c>
       <c r="D760">
-        <v>239.5</v>
+        <v>239</v>
       </c>
       <c r="E760" t="s">
         <v>2698</v>
@@ -21411,7 +21411,7 @@
         <v>1</v>
       </c>
       <c r="D761">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E761" t="s">
         <v>2697</v>
@@ -21802,7 +21802,7 @@
         <v>2</v>
       </c>
       <c r="D784">
-        <v>98</v>
+        <v>96.75</v>
       </c>
       <c r="E784" t="s">
         <v>2697</v>
@@ -21819,7 +21819,7 @@
         <v>1</v>
       </c>
       <c r="D785">
-        <v>91.5</v>
+        <v>90.5</v>
       </c>
       <c r="E785" t="s">
         <v>2697</v>
@@ -21836,7 +21836,7 @@
         <v>2</v>
       </c>
       <c r="D786">
-        <v>101.75</v>
+        <v>100.5</v>
       </c>
       <c r="E786" t="s">
         <v>2697</v>
@@ -22108,7 +22108,7 @@
         <v>2</v>
       </c>
       <c r="D802">
-        <v>395.8131070506959</v>
+        <v>394.26875</v>
       </c>
       <c r="E802" t="s">
         <v>2697</v>
@@ -22227,7 +22227,7 @@
         <v>3</v>
       </c>
       <c r="D809">
-        <v>106</v>
+        <v>105.75</v>
       </c>
       <c r="E809" t="s">
         <v>2698</v>
@@ -22244,7 +22244,7 @@
         <v>1</v>
       </c>
       <c r="D810">
-        <v>2544</v>
+        <v>2538</v>
       </c>
       <c r="E810" t="s">
         <v>2697</v>
@@ -22414,7 +22414,7 @@
         <v>4</v>
       </c>
       <c r="D820">
-        <v>701.25</v>
+        <v>700.75</v>
       </c>
       <c r="E820" t="s">
         <v>2698</v>
@@ -22431,7 +22431,7 @@
         <v>1</v>
       </c>
       <c r="D821">
-        <v>8415</v>
+        <v>8409</v>
       </c>
       <c r="E821" t="s">
         <v>2697</v>
@@ -22448,7 +22448,7 @@
         <v>4</v>
       </c>
       <c r="D822">
-        <v>691.75</v>
+        <v>691.5</v>
       </c>
       <c r="E822" t="s">
         <v>2698</v>
@@ -22465,7 +22465,7 @@
         <v>1</v>
       </c>
       <c r="D823">
-        <v>8301</v>
+        <v>8298</v>
       </c>
       <c r="E823" t="s">
         <v>2697</v>
@@ -22584,7 +22584,7 @@
         <v>4</v>
       </c>
       <c r="D830">
-        <v>554.5</v>
+        <v>554.25</v>
       </c>
       <c r="E830" t="s">
         <v>2698</v>
@@ -22601,7 +22601,7 @@
         <v>1</v>
       </c>
       <c r="D831">
-        <v>6654</v>
+        <v>6651</v>
       </c>
       <c r="E831" t="s">
         <v>2697</v>
@@ -22652,7 +22652,7 @@
         <v>1</v>
       </c>
       <c r="D834">
-        <v>269.25</v>
+        <v>268.5</v>
       </c>
       <c r="E834" t="s">
         <v>2697</v>
@@ -22669,7 +22669,7 @@
         <v>1</v>
       </c>
       <c r="D835">
-        <v>562.25</v>
+        <v>560.75</v>
       </c>
       <c r="E835" t="s">
         <v>2697</v>
@@ -22686,7 +22686,7 @@
         <v>1</v>
       </c>
       <c r="D836">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E836" t="s">
         <v>2697</v>
@@ -23655,7 +23655,7 @@
         <v>2</v>
       </c>
       <c r="D893">
-        <v>396.465248989796</v>
+        <v>396.4652424164153</v>
       </c>
       <c r="E893" t="s">
         <v>2697</v>
@@ -24471,7 +24471,7 @@
         <v>1</v>
       </c>
       <c r="D941">
-        <v>547</v>
+        <v>537.75</v>
       </c>
       <c r="E941" t="s">
         <v>2697</v>
@@ -24726,7 +24726,7 @@
         <v>2</v>
       </c>
       <c r="D956">
-        <v>298.75</v>
+        <v>297.5</v>
       </c>
       <c r="E956" t="s">
         <v>2697</v>
@@ -24811,7 +24811,7 @@
         <v>10</v>
       </c>
       <c r="D961">
-        <v>991.25</v>
+        <v>990</v>
       </c>
       <c r="E961" t="s">
         <v>2697</v>
@@ -24930,7 +24930,7 @@
         <v>4</v>
       </c>
       <c r="D968">
-        <v>94.25</v>
+        <v>94</v>
       </c>
       <c r="E968" t="s">
         <v>2698</v>
@@ -24947,7 +24947,7 @@
         <v>1</v>
       </c>
       <c r="D969">
-        <v>1885</v>
+        <v>1880</v>
       </c>
       <c r="E969" t="s">
         <v>2697</v>
@@ -25083,7 +25083,7 @@
         <v>1</v>
       </c>
       <c r="D977">
-        <v>419.75</v>
+        <v>419.5</v>
       </c>
       <c r="E977" t="s">
         <v>2697</v>
@@ -25100,7 +25100,7 @@
         <v>1</v>
       </c>
       <c r="D978">
-        <v>343.5</v>
+        <v>343.25</v>
       </c>
       <c r="E978" t="s">
         <v>2697</v>
@@ -25117,7 +25117,7 @@
         <v>1</v>
       </c>
       <c r="D979">
-        <v>533.75</v>
+        <v>533.5</v>
       </c>
       <c r="E979" t="s">
         <v>2697</v>
@@ -25134,7 +25134,7 @@
         <v>3</v>
       </c>
       <c r="D980">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E980" t="s">
         <v>2697</v>
@@ -25287,7 +25287,7 @@
         <v>1</v>
       </c>
       <c r="D989">
-        <v>853.25</v>
+        <v>851</v>
       </c>
       <c r="E989" t="s">
         <v>2697</v>
@@ -25304,7 +25304,7 @@
         <v>1</v>
       </c>
       <c r="D990">
-        <v>593.75</v>
+        <v>592.5</v>
       </c>
       <c r="E990" t="s">
         <v>2697</v>
@@ -25763,7 +25763,7 @@
         <v>2</v>
       </c>
       <c r="D1017">
-        <v>397.9622764017921</v>
+        <v>397.9622312419243</v>
       </c>
       <c r="E1017" t="s">
         <v>2697</v>
@@ -25814,7 +25814,7 @@
         <v>2</v>
       </c>
       <c r="D1020">
-        <v>169</v>
+        <v>168.5</v>
       </c>
       <c r="E1020" t="s">
         <v>2697</v>
@@ -25882,7 +25882,7 @@
         <v>2</v>
       </c>
       <c r="D1024">
-        <v>332.75</v>
+        <v>332.25</v>
       </c>
       <c r="E1024" t="s">
         <v>2697</v>
@@ -26307,7 +26307,7 @@
         <v>1</v>
       </c>
       <c r="D1049">
-        <v>655.5</v>
+        <v>654.75</v>
       </c>
       <c r="E1049" t="s">
         <v>2697</v>
@@ -26324,7 +26324,7 @@
         <v>1</v>
       </c>
       <c r="D1050">
-        <v>993.856786185424</v>
+        <v>992.7538055012715</v>
       </c>
       <c r="E1050" t="s">
         <v>2697</v>
@@ -26664,7 +26664,7 @@
         <v>1</v>
       </c>
       <c r="D1070">
-        <v>770.5</v>
+        <v>771</v>
       </c>
       <c r="E1070" t="s">
         <v>2697</v>
@@ -27038,7 +27038,7 @@
         <v>2</v>
       </c>
       <c r="D1092">
-        <v>406.70625</v>
+        <v>406.6994097120535</v>
       </c>
       <c r="E1092" t="s">
         <v>2697</v>
@@ -28279,7 +28279,7 @@
         <v>1</v>
       </c>
       <c r="D1165">
-        <v>624.75</v>
+        <v>623.25</v>
       </c>
       <c r="E1165" t="s">
         <v>2697</v>
@@ -28296,7 +28296,7 @@
         <v>1</v>
       </c>
       <c r="D1166">
-        <v>624.25</v>
+        <v>622.75</v>
       </c>
       <c r="E1166" t="s">
         <v>2697</v>
@@ -28313,7 +28313,7 @@
         <v>1</v>
       </c>
       <c r="D1167">
-        <v>550.25</v>
+        <v>548.75</v>
       </c>
       <c r="E1167" t="s">
         <v>2697</v>
@@ -28330,7 +28330,7 @@
         <v>1</v>
       </c>
       <c r="D1168">
-        <v>746.25</v>
+        <v>744.25</v>
       </c>
       <c r="E1168" t="s">
         <v>2697</v>
@@ -28347,7 +28347,7 @@
         <v>1</v>
       </c>
       <c r="D1169">
-        <v>771.75</v>
+        <v>769.75</v>
       </c>
       <c r="E1169" t="s">
         <v>2697</v>
@@ -28908,7 +28908,7 @@
         <v>10</v>
       </c>
       <c r="D1202">
-        <v>422.5</v>
+        <v>418</v>
       </c>
       <c r="E1202" t="s">
         <v>2697</v>
@@ -28925,7 +28925,7 @@
         <v>4</v>
       </c>
       <c r="D1203">
-        <v>276.1397901569242</v>
+        <v>276.0806988774473</v>
       </c>
       <c r="E1203" t="s">
         <v>2698</v>
@@ -28942,7 +28942,7 @@
         <v>1</v>
       </c>
       <c r="D1204">
-        <v>3313.67748188309</v>
+        <v>3312.968386529368</v>
       </c>
       <c r="E1204" t="s">
         <v>2697</v>
@@ -28959,7 +28959,7 @@
         <v>4</v>
       </c>
       <c r="D1205">
-        <v>351.75</v>
+        <v>351.5</v>
       </c>
       <c r="E1205" t="s">
         <v>2698</v>
@@ -28976,7 +28976,7 @@
         <v>1</v>
       </c>
       <c r="D1206">
-        <v>4221</v>
+        <v>4218</v>
       </c>
       <c r="E1206" t="s">
         <v>2697</v>
@@ -29792,7 +29792,7 @@
         <v>2</v>
       </c>
       <c r="D1254">
-        <v>71.25</v>
+        <v>70.5</v>
       </c>
       <c r="E1254" t="s">
         <v>2697</v>
@@ -29809,7 +29809,7 @@
         <v>2</v>
       </c>
       <c r="D1255">
-        <v>301.25</v>
+        <v>296</v>
       </c>
       <c r="E1255" t="s">
         <v>2697</v>
@@ -29843,7 +29843,7 @@
         <v>2</v>
       </c>
       <c r="D1257">
-        <v>104.5</v>
+        <v>104.25</v>
       </c>
       <c r="E1257" t="s">
         <v>2697</v>
@@ -29860,7 +29860,7 @@
         <v>2</v>
       </c>
       <c r="D1258">
-        <v>107.25</v>
+        <v>105.75</v>
       </c>
       <c r="E1258" t="s">
         <v>2697</v>
@@ -30608,7 +30608,7 @@
         <v>7</v>
       </c>
       <c r="D1302">
-        <v>51.34990006873853</v>
+        <v>50.9598411994818</v>
       </c>
       <c r="E1302" t="s">
         <v>2698</v>
@@ -30625,7 +30625,7 @@
         <v>2</v>
       </c>
       <c r="D1303">
-        <v>1026.998001374771</v>
+        <v>1019.196823989636</v>
       </c>
       <c r="E1303" t="s">
         <v>2697</v>
@@ -31169,7 +31169,7 @@
         <v>2</v>
       </c>
       <c r="D1335">
-        <v>55.5</v>
+        <v>54.75</v>
       </c>
       <c r="E1335" t="s">
         <v>2697</v>
@@ -31203,7 +31203,7 @@
         <v>2</v>
       </c>
       <c r="D1337">
-        <v>57.5</v>
+        <v>57</v>
       </c>
       <c r="E1337" t="s">
         <v>2697</v>
@@ -31951,7 +31951,7 @@
         <v>23</v>
       </c>
       <c r="D1381">
-        <v>33.5</v>
+        <v>33.25</v>
       </c>
       <c r="E1381" t="s">
         <v>2698</v>
@@ -31968,7 +31968,7 @@
         <v>15</v>
       </c>
       <c r="D1382">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E1382" t="s">
         <v>2697</v>
@@ -31985,7 +31985,7 @@
         <v>1</v>
       </c>
       <c r="D1383">
-        <v>1608</v>
+        <v>1596</v>
       </c>
       <c r="E1383" t="s">
         <v>2697</v>
@@ -32002,7 +32002,7 @@
         <v>23</v>
       </c>
       <c r="D1384">
-        <v>33.25</v>
+        <v>33</v>
       </c>
       <c r="E1384" t="s">
         <v>2698</v>
@@ -32019,7 +32019,7 @@
         <v>15</v>
       </c>
       <c r="D1385">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E1385" t="s">
         <v>2697</v>
@@ -32036,7 +32036,7 @@
         <v>1</v>
       </c>
       <c r="D1386">
-        <v>1596</v>
+        <v>1584</v>
       </c>
       <c r="E1386" t="s">
         <v>2697</v>
@@ -32053,7 +32053,7 @@
         <v>23</v>
       </c>
       <c r="D1387">
-        <v>33.5</v>
+        <v>33.25</v>
       </c>
       <c r="E1387" t="s">
         <v>2698</v>
@@ -32070,7 +32070,7 @@
         <v>15</v>
       </c>
       <c r="D1388">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E1388" t="s">
         <v>2697</v>
@@ -32087,7 +32087,7 @@
         <v>1</v>
       </c>
       <c r="D1389">
-        <v>1608</v>
+        <v>1596</v>
       </c>
       <c r="E1389" t="s">
         <v>2697</v>
@@ -32104,7 +32104,7 @@
         <v>23</v>
       </c>
       <c r="D1390">
-        <v>33.75</v>
+        <v>33.5</v>
       </c>
       <c r="E1390" t="s">
         <v>2698</v>
@@ -32121,7 +32121,7 @@
         <v>15</v>
       </c>
       <c r="D1391">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E1391" t="s">
         <v>2697</v>
@@ -32138,7 +32138,7 @@
         <v>1</v>
       </c>
       <c r="D1392">
-        <v>1620</v>
+        <v>1608</v>
       </c>
       <c r="E1392" t="s">
         <v>2697</v>
@@ -32954,7 +32954,7 @@
         <v>3</v>
       </c>
       <c r="D1440">
-        <v>102.5</v>
+        <v>102.25</v>
       </c>
       <c r="E1440" t="s">
         <v>2698</v>
@@ -32971,7 +32971,7 @@
         <v>1</v>
       </c>
       <c r="D1441">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="E1441" t="s">
         <v>2697</v>
@@ -34603,7 +34603,7 @@
         <v>3</v>
       </c>
       <c r="D1537">
-        <v>321.9742156698198</v>
+        <v>321.9907381569781</v>
       </c>
       <c r="E1537" t="s">
         <v>2697</v>
@@ -34909,7 +34909,7 @@
         <v>2</v>
       </c>
       <c r="D1555">
-        <v>68.25</v>
+        <v>64</v>
       </c>
       <c r="E1555" t="s">
         <v>2697</v>
@@ -34926,7 +34926,7 @@
         <v>2</v>
       </c>
       <c r="D1556">
-        <v>65.5</v>
+        <v>62.25</v>
       </c>
       <c r="E1556" t="s">
         <v>2697</v>
@@ -34943,7 +34943,7 @@
         <v>2</v>
       </c>
       <c r="D1557">
-        <v>55.75</v>
+        <v>55</v>
       </c>
       <c r="E1557" t="s">
         <v>2697</v>
@@ -34960,7 +34960,7 @@
         <v>1</v>
       </c>
       <c r="D1558">
-        <v>573.75</v>
+        <v>574.25</v>
       </c>
       <c r="E1558" t="s">
         <v>2697</v>
@@ -35011,7 +35011,7 @@
         <v>2</v>
       </c>
       <c r="D1561">
-        <v>179.7784569208071</v>
+        <v>179.7739274433898</v>
       </c>
       <c r="E1561" t="s">
         <v>2697</v>
@@ -36150,7 +36150,7 @@
         <v>1</v>
       </c>
       <c r="D1628">
-        <v>405.25</v>
+        <v>405.5</v>
       </c>
       <c r="E1628" t="s">
         <v>2697</v>
@@ -36524,7 +36524,7 @@
         <v>2</v>
       </c>
       <c r="D1650">
-        <v>322.25</v>
+        <v>321.25</v>
       </c>
       <c r="E1650" t="s">
         <v>2697</v>
@@ -37034,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="D1680">
-        <v>175</v>
+        <v>174.75</v>
       </c>
       <c r="E1680" t="s">
         <v>2697</v>
@@ -37442,7 +37442,7 @@
         <v>2</v>
       </c>
       <c r="D1704">
-        <v>390.661875</v>
+        <v>389.169375</v>
       </c>
       <c r="E1704" t="s">
         <v>2697</v>
@@ -37782,7 +37782,7 @@
         <v>1</v>
       </c>
       <c r="D1724">
-        <v>326.1402580211284</v>
+        <v>324.743125</v>
       </c>
       <c r="E1724" t="s">
         <v>2697</v>
@@ -39023,7 +39023,7 @@
         <v>3</v>
       </c>
       <c r="D1797">
-        <v>61.5</v>
+        <v>61.25</v>
       </c>
       <c r="E1797" t="s">
         <v>2698</v>
@@ -39040,7 +39040,7 @@
         <v>1</v>
       </c>
       <c r="D1798">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="E1798" t="s">
         <v>2697</v>
@@ -43052,7 +43052,7 @@
         <v>3</v>
       </c>
       <c r="D2034">
-        <v>49.5</v>
+        <v>49</v>
       </c>
       <c r="E2034" t="s">
         <v>2698</v>
@@ -43069,7 +43069,7 @@
         <v>1</v>
       </c>
       <c r="D2035">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="E2035" t="s">
         <v>2697</v>
@@ -43392,7 +43392,7 @@
         <v>3</v>
       </c>
       <c r="D2054">
-        <v>84.7771770161178</v>
+        <v>84.46944085798943</v>
       </c>
       <c r="E2054" t="s">
         <v>2698</v>
@@ -43409,7 +43409,7 @@
         <v>1</v>
       </c>
       <c r="D2055">
-        <v>1695.543540322356</v>
+        <v>1689.388817159788</v>
       </c>
       <c r="E2055" t="s">
         <v>2697</v>
@@ -45279,7 +45279,7 @@
         <v>2</v>
       </c>
       <c r="D2165">
-        <v>180.75</v>
+        <v>179.75</v>
       </c>
       <c r="E2165" t="s">
         <v>2697</v>
@@ -45347,7 +45347,7 @@
         <v>10</v>
       </c>
       <c r="D2169">
-        <v>51</v>
+        <v>50.75</v>
       </c>
       <c r="E2169" t="s">
         <v>2698</v>
@@ -45364,7 +45364,7 @@
         <v>1</v>
       </c>
       <c r="D2170">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="E2170" t="s">
         <v>2697</v>
@@ -45381,7 +45381,7 @@
         <v>10</v>
       </c>
       <c r="D2171">
-        <v>87.25</v>
+        <v>87</v>
       </c>
       <c r="E2171" t="s">
         <v>2698</v>
@@ -45398,7 +45398,7 @@
         <v>1</v>
       </c>
       <c r="D2172">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="E2172" t="s">
         <v>2697</v>
@@ -45415,7 +45415,7 @@
         <v>10</v>
       </c>
       <c r="D2173">
-        <v>131.25</v>
+        <v>131</v>
       </c>
       <c r="E2173" t="s">
         <v>2698</v>
@@ -45432,7 +45432,7 @@
         <v>1</v>
       </c>
       <c r="D2174">
-        <v>1312.5</v>
+        <v>1310</v>
       </c>
       <c r="E2174" t="s">
         <v>2697</v>
@@ -45449,7 +45449,7 @@
         <v>2</v>
       </c>
       <c r="D2175">
-        <v>751.5</v>
+        <v>750.5</v>
       </c>
       <c r="E2175" t="s">
         <v>2697</v>
@@ -46265,7 +46265,7 @@
         <v>3</v>
       </c>
       <c r="D2223">
-        <v>47.67658058903425</v>
+        <v>47.6765805895525</v>
       </c>
       <c r="E2223" t="s">
         <v>2698</v>
@@ -46282,7 +46282,7 @@
         <v>1</v>
       </c>
       <c r="D2224">
-        <v>572.1189670684111</v>
+        <v>572.1189670746301</v>
       </c>
       <c r="E2224" t="s">
         <v>2697</v>
@@ -47387,7 +47387,7 @@
         <v>3</v>
       </c>
       <c r="D2289">
-        <v>84.0775</v>
+        <v>82.958125</v>
       </c>
       <c r="E2289" t="s">
         <v>2698</v>
@@ -47404,7 +47404,7 @@
         <v>1</v>
       </c>
       <c r="D2290">
-        <v>1681.55</v>
+        <v>1659.1625</v>
       </c>
       <c r="E2290" t="s">
         <v>2697</v>
@@ -47455,7 +47455,7 @@
         <v>2</v>
       </c>
       <c r="D2293">
-        <v>51.75</v>
+        <v>51</v>
       </c>
       <c r="E2293" t="s">
         <v>2697</v>
@@ -47608,7 +47608,7 @@
         <v>2</v>
       </c>
       <c r="D2302">
-        <v>183.9206599281327</v>
+        <v>183.9128516353719</v>
       </c>
       <c r="E2302" t="s">
         <v>2697</v>
@@ -47863,7 +47863,7 @@
         <v>2</v>
       </c>
       <c r="D2317">
-        <v>121.5</v>
+        <v>118.75</v>
       </c>
       <c r="E2317" t="s">
         <v>2697</v>
@@ -47965,7 +47965,7 @@
         <v>23</v>
       </c>
       <c r="D2323">
-        <v>24.75</v>
+        <v>24.5</v>
       </c>
       <c r="E2323" t="s">
         <v>2698</v>
@@ -47982,7 +47982,7 @@
         <v>1</v>
       </c>
       <c r="D2324">
-        <v>1782</v>
+        <v>1764</v>
       </c>
       <c r="E2324" t="s">
         <v>2697</v>
@@ -48050,7 +48050,7 @@
         <v>23</v>
       </c>
       <c r="D2328">
-        <v>24.25</v>
+        <v>24</v>
       </c>
       <c r="E2328" t="s">
         <v>2698</v>
@@ -48067,7 +48067,7 @@
         <v>15</v>
       </c>
       <c r="D2329">
-        <v>436.5</v>
+        <v>432</v>
       </c>
       <c r="E2329" t="s">
         <v>2697</v>
@@ -48084,7 +48084,7 @@
         <v>1</v>
       </c>
       <c r="D2330">
-        <v>1746</v>
+        <v>1728</v>
       </c>
       <c r="E2330" t="s">
         <v>2697</v>
@@ -48271,7 +48271,7 @@
         <v>3</v>
       </c>
       <c r="D2341">
-        <v>70.25</v>
+        <v>70.5</v>
       </c>
       <c r="E2341" t="s">
         <v>2698</v>
@@ -48288,7 +48288,7 @@
         <v>138</v>
       </c>
       <c r="D2342">
-        <v>702.5</v>
+        <v>705</v>
       </c>
       <c r="E2342" t="s">
         <v>2697</v>
@@ -48305,7 +48305,7 @@
         <v>1</v>
       </c>
       <c r="D2343">
-        <v>4215</v>
+        <v>4230</v>
       </c>
       <c r="E2343" t="s">
         <v>2697</v>
@@ -48611,7 +48611,7 @@
         <v>2</v>
       </c>
       <c r="D2361">
-        <v>158.6437864651104</v>
+        <v>158.91868276235</v>
       </c>
       <c r="E2361" t="s">
         <v>2697</v>
@@ -49104,7 +49104,7 @@
         <v>2</v>
       </c>
       <c r="D2390">
-        <v>76.25</v>
+        <v>76</v>
       </c>
       <c r="E2390" t="s">
         <v>2698</v>
@@ -49121,7 +49121,7 @@
         <v>1</v>
       </c>
       <c r="D2391">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E2391" t="s">
         <v>2697</v>
@@ -50039,7 +50039,7 @@
         <v>3</v>
       </c>
       <c r="D2445">
-        <v>207</v>
+        <v>207.25</v>
       </c>
       <c r="E2445" t="s">
         <v>2698</v>
@@ -50056,7 +50056,7 @@
         <v>1</v>
       </c>
       <c r="D2446">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E2446" t="s">
         <v>2697</v>
@@ -50107,7 +50107,7 @@
         <v>3</v>
       </c>
       <c r="D2449">
-        <v>199.5</v>
+        <v>199.75</v>
       </c>
       <c r="E2449" t="s">
         <v>2698</v>
@@ -50124,7 +50124,7 @@
         <v>1</v>
       </c>
       <c r="D2450">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E2450" t="s">
         <v>2697</v>
@@ -53235,7 +53235,7 @@
         <v>1</v>
       </c>
       <c r="D2633">
-        <v>227.25</v>
+        <v>225.5</v>
       </c>
       <c r="E2633" t="s">
         <v>2697</v>
@@ -53252,7 +53252,7 @@
         <v>1</v>
       </c>
       <c r="D2634">
-        <v>288.5</v>
+        <v>286</v>
       </c>
       <c r="E2634" t="s">
         <v>2697</v>
@@ -53983,7 +53983,7 @@
         <v>2</v>
       </c>
       <c r="D2677">
-        <v>111.5</v>
+        <v>110.5</v>
       </c>
       <c r="E2677" t="s">
         <v>2697</v>
@@ -54000,7 +54000,7 @@
         <v>2</v>
       </c>
       <c r="D2678">
-        <v>137.75</v>
+        <v>136.25</v>
       </c>
       <c r="E2678" t="s">
         <v>2697</v>
@@ -54425,7 +54425,7 @@
         <v>2</v>
       </c>
       <c r="D2703">
-        <v>322.25</v>
+        <v>321.25</v>
       </c>
       <c r="E2703" t="s">
         <v>2697</v>
@@ -56822,7 +56822,7 @@
         <v>2</v>
       </c>
       <c r="D2844">
-        <v>71.5</v>
+        <v>71.25</v>
       </c>
       <c r="E2844" t="s">
         <v>2698</v>
@@ -56839,7 +56839,7 @@
         <v>1</v>
       </c>
       <c r="D2845">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E2845" t="s">
         <v>2697</v>
@@ -56992,7 +56992,7 @@
         <v>7</v>
       </c>
       <c r="D2854">
-        <v>61</v>
+        <v>60.25</v>
       </c>
       <c r="E2854" t="s">
         <v>2698</v>
@@ -57009,7 +57009,7 @@
         <v>15</v>
       </c>
       <c r="D2855">
-        <v>366</v>
+        <v>361.5</v>
       </c>
       <c r="E2855" t="s">
         <v>2697</v>
@@ -57026,7 +57026,7 @@
         <v>1</v>
       </c>
       <c r="D2856">
-        <v>1464</v>
+        <v>1446</v>
       </c>
       <c r="E2856" t="s">
         <v>2697</v>
@@ -58097,7 +58097,7 @@
         <v>2</v>
       </c>
       <c r="D2919">
-        <v>121.5</v>
+        <v>118.75</v>
       </c>
       <c r="E2919" t="s">
         <v>2697</v>
@@ -60647,7 +60647,7 @@
         <v>1</v>
       </c>
       <c r="D3069">
-        <v>254</v>
+        <v>248.5</v>
       </c>
       <c r="E3069" t="s">
         <v>2697</v>
@@ -60664,7 +60664,7 @@
         <v>1</v>
       </c>
       <c r="D3070">
-        <v>254.75</v>
+        <v>247.75</v>
       </c>
       <c r="E3070" t="s">
         <v>2697</v>
@@ -60732,7 +60732,7 @@
         <v>3</v>
       </c>
       <c r="D3074">
-        <v>792.5</v>
+        <v>792.25</v>
       </c>
       <c r="E3074" t="s">
         <v>2698</v>
@@ -60749,7 +60749,7 @@
         <v>1</v>
       </c>
       <c r="D3075">
-        <v>6340</v>
+        <v>6338</v>
       </c>
       <c r="E3075" t="s">
         <v>2697</v>
@@ -61004,7 +61004,7 @@
         <v>7</v>
       </c>
       <c r="D3090">
-        <v>155.935909941455</v>
+        <v>155.8929751651839</v>
       </c>
       <c r="E3090" t="s">
         <v>2698</v>
@@ -61021,7 +61021,7 @@
         <v>1</v>
       </c>
       <c r="D3091">
-        <v>2339.038649121826</v>
+        <v>2338.394627477758</v>
       </c>
       <c r="E3091" t="s">
         <v>2697</v>
@@ -61038,7 +61038,7 @@
         <v>7</v>
       </c>
       <c r="D3092">
-        <v>121.6956904287081</v>
+        <v>121.2827751697387</v>
       </c>
       <c r="E3092" t="s">
         <v>2698</v>
@@ -61055,7 +61055,7 @@
         <v>1</v>
       </c>
       <c r="D3093">
-        <v>1825.435356430622</v>
+        <v>1819.241627546081</v>
       </c>
       <c r="E3093" t="s">
         <v>2697</v>
@@ -61072,7 +61072,7 @@
         <v>7</v>
       </c>
       <c r="D3094">
-        <v>121.359066484052</v>
+        <v>121.0086019098676</v>
       </c>
       <c r="E3094" t="s">
         <v>2698</v>
@@ -61089,7 +61089,7 @@
         <v>1</v>
       </c>
       <c r="D3095">
-        <v>1820.38599726078</v>
+        <v>1815.129028648014</v>
       </c>
       <c r="E3095" t="s">
         <v>2697</v>
@@ -61803,7 +61803,7 @@
         <v>3</v>
       </c>
       <c r="D3137">
-        <v>17.64965396586826</v>
+        <v>17.64943765241558</v>
       </c>
       <c r="E3137" t="s">
         <v>2698</v>
@@ -61820,7 +61820,7 @@
         <v>1</v>
       </c>
       <c r="D3138">
-        <v>1270.775085542515</v>
+        <v>1270.759510973922</v>
       </c>
       <c r="E3138" t="s">
         <v>2697</v>
@@ -61837,7 +61837,7 @@
         <v>3</v>
       </c>
       <c r="D3139">
-        <v>36.1237105600859</v>
+        <v>36.12371056008589</v>
       </c>
       <c r="E3139" t="s">
         <v>2698</v>
@@ -61871,7 +61871,7 @@
         <v>4</v>
       </c>
       <c r="D3141">
-        <v>59.12963994288612</v>
+        <v>59.12965168046856</v>
       </c>
       <c r="E3141" t="s">
         <v>2698</v>
@@ -61888,7 +61888,7 @@
         <v>1</v>
       </c>
       <c r="D3142">
-        <v>1419.111358629267</v>
+        <v>1419.111640331246</v>
       </c>
       <c r="E3142" t="s">
         <v>2697</v>
@@ -61905,7 +61905,7 @@
         <v>3</v>
       </c>
       <c r="D3143">
-        <v>17.64751622249883</v>
+        <v>17.64751807543961</v>
       </c>
       <c r="E3143" t="s">
         <v>2698</v>
@@ -61922,7 +61922,7 @@
         <v>1</v>
       </c>
       <c r="D3144">
-        <v>1270.621168019916</v>
+        <v>1270.621301431652</v>
       </c>
       <c r="E3144" t="s">
         <v>2697</v>
@@ -61939,7 +61939,7 @@
         <v>3</v>
       </c>
       <c r="D3145">
-        <v>36.12539675265906</v>
+        <v>36.12540531444886</v>
       </c>
       <c r="E3145" t="s">
         <v>2698</v>
@@ -61956,7 +61956,7 @@
         <v>1</v>
       </c>
       <c r="D3146">
-        <v>1300.514283095726</v>
+        <v>1300.514591320159</v>
       </c>
       <c r="E3146" t="s">
         <v>2697</v>
@@ -61973,7 +61973,7 @@
         <v>4</v>
       </c>
       <c r="D3147">
-        <v>58.44364961890432</v>
+        <v>58.44379958738019</v>
       </c>
       <c r="E3147" t="s">
         <v>2698</v>
@@ -61990,7 +61990,7 @@
         <v>1</v>
       </c>
       <c r="D3148">
-        <v>1402.647590853704</v>
+        <v>1402.651190097125</v>
       </c>
       <c r="E3148" t="s">
         <v>2697</v>
@@ -62194,7 +62194,7 @@
         <v>3</v>
       </c>
       <c r="D3160">
-        <v>35.89033920078851</v>
+        <v>35.89033874780736</v>
       </c>
       <c r="E3160" t="s">
         <v>2698</v>
@@ -62211,7 +62211,7 @@
         <v>1</v>
       </c>
       <c r="D3161">
-        <v>1292.052211228386</v>
+        <v>1292.052194921065</v>
       </c>
       <c r="E3161" t="s">
         <v>2697</v>
@@ -64251,7 +64251,7 @@
         <v>3</v>
       </c>
       <c r="D3281">
-        <v>17.57564941144319</v>
+        <v>17.57565223401543</v>
       </c>
       <c r="E3281" t="s">
         <v>2698</v>
@@ -64268,7 +64268,7 @@
         <v>1</v>
       </c>
       <c r="D3282">
-        <v>1265.44675762391</v>
+        <v>1265.446960849111</v>
       </c>
       <c r="E3282" t="s">
         <v>2697</v>
@@ -64795,7 +64795,7 @@
         <v>4</v>
       </c>
       <c r="D3313">
-        <v>561.75</v>
+        <v>561.25</v>
       </c>
       <c r="E3313" t="s">
         <v>2698</v>
@@ -64812,7 +64812,7 @@
         <v>1</v>
       </c>
       <c r="D3314">
-        <v>6741</v>
+        <v>6735</v>
       </c>
       <c r="E3314" t="s">
         <v>2697</v>
@@ -64829,7 +64829,7 @@
         <v>4</v>
       </c>
       <c r="D3315">
-        <v>728.75</v>
+        <v>723.25</v>
       </c>
       <c r="E3315" t="s">
         <v>2698</v>
@@ -64846,7 +64846,7 @@
         <v>1</v>
       </c>
       <c r="D3316">
-        <v>8745</v>
+        <v>8679</v>
       </c>
       <c r="E3316" t="s">
         <v>2697</v>
@@ -73822,7 +73822,7 @@
         <v>12</v>
       </c>
       <c r="D3844">
-        <v>383.5</v>
+        <v>383.25</v>
       </c>
       <c r="E3844" t="s">
         <v>2697</v>
@@ -74315,7 +74315,7 @@
         <v>2</v>
       </c>
       <c r="D3873">
-        <v>289.5</v>
+        <v>291.5</v>
       </c>
       <c r="E3873" t="s">
         <v>2697</v>
@@ -74366,7 +74366,7 @@
         <v>1</v>
       </c>
       <c r="D3876">
-        <v>173.75</v>
+        <v>173.5</v>
       </c>
       <c r="E3876" t="s">
         <v>2697</v>
@@ -74400,7 +74400,7 @@
         <v>1</v>
       </c>
       <c r="D3878">
-        <v>177</v>
+        <v>176.75</v>
       </c>
       <c r="E3878" t="s">
         <v>2697</v>
@@ -74417,7 +74417,7 @@
         <v>1</v>
       </c>
       <c r="D3879">
-        <v>169.75</v>
+        <v>169.5</v>
       </c>
       <c r="E3879" t="s">
         <v>2697</v>
@@ -74434,7 +74434,7 @@
         <v>1</v>
       </c>
       <c r="D3880">
-        <v>168.75</v>
+        <v>168.5</v>
       </c>
       <c r="E3880" t="s">
         <v>2697</v>
